--- a/biocyc/comparison/comparison_formatted_trimmed.xlsx
+++ b/biocyc/comparison/comparison_formatted_trimmed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="comparison.csv" sheetId="1" r:id="rId1"/>
@@ -15618,8 +15618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
-      <selection activeCell="A1053" sqref="A1053"/>
+    <sheetView tabSelected="1" topLeftCell="A850" workbookViewId="0">
+      <selection activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -45579,208 +45579,232 @@
       </c>
     </row>
     <row r="1048" spans="1:9">
+      <c r="A1048" t="s">
+        <v>5008</v>
+      </c>
       <c r="B1048" s="1" t="s">
-        <v>3389</v>
+        <v>4843</v>
       </c>
       <c r="C1048" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1048" s="1" t="s">
+        <v>4840</v>
+      </c>
+      <c r="G1048" s="1" t="s">
+        <v>4841</v>
+      </c>
+      <c r="H1048" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="I1048" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1048" s="1" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E1048" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1048" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1048" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1048" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1048" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="1049" spans="1:9">
+      <c r="A1049" t="s">
+        <v>5008</v>
+      </c>
       <c r="B1049" s="1" t="s">
-        <v>3849</v>
+        <v>3154</v>
       </c>
       <c r="C1049" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="G1049" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="H1049" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="I1049" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1049" s="1" t="s">
-        <v>3847</v>
-      </c>
-      <c r="E1049" s="1" t="s">
-        <v>3848</v>
-      </c>
-      <c r="F1049" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1049" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1049" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1049" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="1050" spans="1:9">
+      <c r="A1050" t="s">
+        <v>5008</v>
+      </c>
       <c r="B1050" s="1" t="s">
-        <v>3312</v>
+        <v>4684</v>
       </c>
       <c r="C1050" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G1050" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H1050" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I1050" s="1" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9">
+      <c r="A1051" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9">
+      <c r="A1052" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F1052" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G1052" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1052" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1052" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9">
+      <c r="A1053" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>4792</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>4793</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>4789</v>
+      </c>
+      <c r="G1053" s="1" t="s">
+        <v>4790</v>
+      </c>
+      <c r="H1053" s="1" t="s">
+        <v>4791</v>
+      </c>
+      <c r="I1053" s="1" t="s">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9">
+      <c r="A1054" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1054" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1054" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I1054" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1050" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="E1050" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="F1050" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="G1050" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="H1050" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1050" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:9">
-      <c r="B1051" s="1" t="s">
-        <v>4440</v>
-      </c>
-      <c r="C1051" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1051" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1051" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1051" s="1" t="s">
-        <v>4438</v>
-      </c>
-      <c r="G1051" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1051" s="1" t="s">
-        <v>4439</v>
-      </c>
-      <c r="I1051" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:9">
-      <c r="B1052" s="1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C1052" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1052" s="1" t="s">
-        <v>3574</v>
-      </c>
-      <c r="E1052" s="1" t="s">
-        <v>3575</v>
-      </c>
-      <c r="F1052" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1052" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1052" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1052" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:9">
-      <c r="B1053" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="C1053" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1053" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="E1053" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="F1053" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="G1053" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1053" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="I1053" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:9">
-      <c r="B1054" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C1054" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1054" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E1054" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F1054" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1054" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1054" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1054" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="1055" spans="1:9">
+      <c r="A1055" t="s">
+        <v>5008</v>
+      </c>
       <c r="B1055" s="1" t="s">
-        <v>847</v>
+        <v>4984</v>
       </c>
       <c r="C1055" s="1" t="s">
-        <v>12</v>
+        <v>1252</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>844</v>
+        <v>10</v>
       </c>
       <c r="E1055" s="1" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="F1055" s="1" t="s">
-        <v>844</v>
+        <v>10</v>
       </c>
       <c r="G1055" s="1" t="s">
-        <v>845</v>
+        <v>10</v>
       </c>
       <c r="H1055" s="1" t="s">
-        <v>846</v>
+        <v>4983</v>
       </c>
       <c r="I1055" s="1" t="s">
         <v>12</v>
@@ -45788,42 +45812,42 @@
     </row>
     <row r="1056" spans="1:9">
       <c r="B1056" s="1" t="s">
-        <v>1977</v>
+        <v>3389</v>
       </c>
       <c r="C1056" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>1973</v>
+        <v>3388</v>
       </c>
       <c r="E1056" s="1" t="s">
-        <v>1742</v>
+        <v>9</v>
       </c>
       <c r="F1056" s="1" t="s">
-        <v>1974</v>
+        <v>10</v>
       </c>
       <c r="G1056" s="1" t="s">
-        <v>1975</v>
+        <v>10</v>
       </c>
       <c r="H1056" s="1" t="s">
-        <v>1976</v>
+        <v>10</v>
       </c>
       <c r="I1056" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1057" spans="2:9">
       <c r="B1057" s="1" t="s">
-        <v>1838</v>
+        <v>3849</v>
       </c>
       <c r="C1057" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>1837</v>
+        <v>3847</v>
       </c>
       <c r="E1057" s="1" t="s">
-        <v>9</v>
+        <v>3848</v>
       </c>
       <c r="F1057" s="1" t="s">
         <v>10</v>
@@ -45840,22 +45864,22 @@
     </row>
     <row r="1058" spans="2:9">
       <c r="B1058" s="1" t="s">
-        <v>2831</v>
+        <v>3312</v>
       </c>
       <c r="C1058" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>2829</v>
+        <v>3308</v>
       </c>
       <c r="E1058" s="1" t="s">
-        <v>2830</v>
+        <v>3309</v>
       </c>
       <c r="F1058" s="1" t="s">
-        <v>10</v>
+        <v>3310</v>
       </c>
       <c r="G1058" s="1" t="s">
-        <v>10</v>
+        <v>3311</v>
       </c>
       <c r="H1058" s="1" t="s">
         <v>10</v>
@@ -45866,7 +45890,7 @@
     </row>
     <row r="1059" spans="2:9">
       <c r="B1059" s="1" t="s">
-        <v>4723</v>
+        <v>4440</v>
       </c>
       <c r="C1059" s="1" t="s">
         <v>12</v>
@@ -45878,13 +45902,13 @@
         <v>10</v>
       </c>
       <c r="F1059" s="1" t="s">
-        <v>4720</v>
+        <v>4438</v>
       </c>
       <c r="G1059" s="1" t="s">
-        <v>4721</v>
+        <v>236</v>
       </c>
       <c r="H1059" s="1" t="s">
-        <v>4722</v>
+        <v>4439</v>
       </c>
       <c r="I1059" s="1" t="s">
         <v>12</v>
@@ -45892,16 +45916,16 @@
     </row>
     <row r="1060" spans="2:9" ht="30">
       <c r="B1060" s="1" t="s">
-        <v>3519</v>
+        <v>3576</v>
       </c>
       <c r="C1060" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>3518</v>
+        <v>3574</v>
       </c>
       <c r="E1060" s="1" t="s">
-        <v>2128</v>
+        <v>3575</v>
       </c>
       <c r="F1060" s="1" t="s">
         <v>10</v>
@@ -45918,25 +45942,25 @@
     </row>
     <row r="1061" spans="2:9">
       <c r="B1061" s="1" t="s">
-        <v>3519</v>
+        <v>3322</v>
       </c>
       <c r="C1061" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>10</v>
+        <v>3318</v>
       </c>
       <c r="E1061" s="1" t="s">
-        <v>10</v>
+        <v>3319</v>
       </c>
       <c r="F1061" s="1" t="s">
-        <v>10</v>
+        <v>3320</v>
       </c>
       <c r="G1061" s="1" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="H1061" s="1" t="s">
-        <v>4882</v>
+        <v>3321</v>
       </c>
       <c r="I1061" s="1" t="s">
         <v>12</v>
@@ -45944,22 +45968,22 @@
     </row>
     <row r="1062" spans="2:9">
       <c r="B1062" s="1" t="s">
-        <v>4832</v>
+        <v>1600</v>
       </c>
       <c r="C1062" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>10</v>
+        <v>1598</v>
       </c>
       <c r="E1062" s="1" t="s">
-        <v>10</v>
+        <v>1599</v>
       </c>
       <c r="F1062" s="1" t="s">
-        <v>4830</v>
+        <v>10</v>
       </c>
       <c r="G1062" s="1" t="s">
-        <v>4831</v>
+        <v>10</v>
       </c>
       <c r="H1062" s="1" t="s">
         <v>10</v>
@@ -45970,65 +45994,65 @@
     </row>
     <row r="1063" spans="2:9" ht="30">
       <c r="B1063" s="1" t="s">
-        <v>4632</v>
+        <v>847</v>
       </c>
       <c r="C1063" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>10</v>
+        <v>844</v>
       </c>
       <c r="E1063" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F1063" s="1" t="s">
-        <v>4630</v>
+        <v>844</v>
       </c>
       <c r="G1063" s="1" t="s">
-        <v>4631</v>
+        <v>845</v>
       </c>
       <c r="H1063" s="1" t="s">
-        <v>10</v>
+        <v>846</v>
       </c>
       <c r="I1063" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1064" spans="2:9">
       <c r="B1064" s="1" t="s">
-        <v>2413</v>
+        <v>1977</v>
       </c>
       <c r="C1064" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>2412</v>
+        <v>1973</v>
       </c>
       <c r="E1064" s="1" t="s">
-        <v>9</v>
+        <v>1742</v>
       </c>
       <c r="F1064" s="1" t="s">
-        <v>10</v>
+        <v>1974</v>
       </c>
       <c r="G1064" s="1" t="s">
-        <v>10</v>
+        <v>1975</v>
       </c>
       <c r="H1064" s="1" t="s">
-        <v>10</v>
+        <v>1976</v>
       </c>
       <c r="I1064" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1065" spans="2:9" ht="30">
       <c r="B1065" s="1" t="s">
-        <v>3022</v>
+        <v>1838</v>
       </c>
       <c r="C1065" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>3021</v>
+        <v>1837</v>
       </c>
       <c r="E1065" s="1" t="s">
         <v>9</v>
@@ -46048,16 +46072,16 @@
     </row>
     <row r="1066" spans="2:9">
       <c r="B1066" s="1" t="s">
-        <v>1426</v>
+        <v>2831</v>
       </c>
       <c r="C1066" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1066" s="1" t="s">
-        <v>1424</v>
+        <v>2829</v>
       </c>
       <c r="E1066" s="1" t="s">
-        <v>1425</v>
+        <v>2830</v>
       </c>
       <c r="F1066" s="1" t="s">
         <v>10</v>
@@ -46074,42 +46098,42 @@
     </row>
     <row r="1067" spans="2:9">
       <c r="B1067" s="1" t="s">
-        <v>4103</v>
+        <v>4723</v>
       </c>
       <c r="C1067" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>4097</v>
+        <v>10</v>
       </c>
       <c r="E1067" s="1" t="s">
-        <v>4098</v>
+        <v>10</v>
       </c>
       <c r="F1067" s="1" t="s">
-        <v>4099</v>
+        <v>4720</v>
       </c>
       <c r="G1067" s="1" t="s">
-        <v>4100</v>
+        <v>4721</v>
       </c>
       <c r="H1067" s="1" t="s">
-        <v>4101</v>
+        <v>4722</v>
       </c>
       <c r="I1067" s="1" t="s">
-        <v>4102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1068" spans="2:9" ht="30">
       <c r="B1068" s="1" t="s">
-        <v>2193</v>
+        <v>3519</v>
       </c>
       <c r="C1068" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>2191</v>
+        <v>3518</v>
       </c>
       <c r="E1068" s="1" t="s">
-        <v>2192</v>
+        <v>2128</v>
       </c>
       <c r="F1068" s="1" t="s">
         <v>10</v>
@@ -46126,16 +46150,16 @@
     </row>
     <row r="1069" spans="2:9">
       <c r="B1069" s="1" t="s">
-        <v>1362</v>
+        <v>3519</v>
       </c>
       <c r="C1069" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>1361</v>
+        <v>10</v>
       </c>
       <c r="E1069" s="1" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="F1069" s="1" t="s">
         <v>10</v>
@@ -46144,15 +46168,15 @@
         <v>10</v>
       </c>
       <c r="H1069" s="1" t="s">
-        <v>10</v>
+        <v>4882</v>
       </c>
       <c r="I1069" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1070" spans="2:9">
       <c r="B1070" s="1" t="s">
-        <v>4992</v>
+        <v>4832</v>
       </c>
       <c r="C1070" s="1" t="s">
         <v>12</v>
@@ -46164,36 +46188,36 @@
         <v>10</v>
       </c>
       <c r="F1070" s="1" t="s">
-        <v>10</v>
+        <v>4830</v>
       </c>
       <c r="G1070" s="1" t="s">
-        <v>10</v>
+        <v>4831</v>
       </c>
       <c r="H1070" s="1" t="s">
-        <v>4991</v>
+        <v>10</v>
       </c>
       <c r="I1070" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1071" spans="2:9" ht="30">
       <c r="B1071" s="1" t="s">
-        <v>1806</v>
+        <v>4632</v>
       </c>
       <c r="C1071" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>1805</v>
+        <v>10</v>
       </c>
       <c r="E1071" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1071" s="1" t="s">
-        <v>10</v>
+        <v>4630</v>
       </c>
       <c r="G1071" s="1" t="s">
-        <v>10</v>
+        <v>4631</v>
       </c>
       <c r="H1071" s="1" t="s">
         <v>10</v>
@@ -46204,13 +46228,13 @@
     </row>
     <row r="1072" spans="2:9">
       <c r="B1072" s="1" t="s">
-        <v>3846</v>
+        <v>2413</v>
       </c>
       <c r="C1072" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>3845</v>
+        <v>2412</v>
       </c>
       <c r="E1072" s="1" t="s">
         <v>9</v>
@@ -46230,16 +46254,16 @@
     </row>
     <row r="1073" spans="2:9">
       <c r="B1073" s="1" t="s">
-        <v>1194</v>
+        <v>3022</v>
       </c>
       <c r="C1073" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>1192</v>
+        <v>3021</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>1193</v>
+        <v>9</v>
       </c>
       <c r="F1073" s="1" t="s">
         <v>10</v>
@@ -46256,16 +46280,16 @@
     </row>
     <row r="1074" spans="2:9">
       <c r="B1074" s="1" t="s">
-        <v>1543</v>
+        <v>1426</v>
       </c>
       <c r="C1074" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>1541</v>
+        <v>1424</v>
       </c>
       <c r="E1074" s="1" t="s">
-        <v>1542</v>
+        <v>1425</v>
       </c>
       <c r="F1074" s="1" t="s">
         <v>10</v>
@@ -46282,42 +46306,42 @@
     </row>
     <row r="1075" spans="2:9" ht="30">
       <c r="B1075" s="1" t="s">
-        <v>3663</v>
+        <v>4103</v>
       </c>
       <c r="C1075" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>3662</v>
+        <v>4097</v>
       </c>
       <c r="E1075" s="1" t="s">
-        <v>692</v>
+        <v>4098</v>
       </c>
       <c r="F1075" s="1" t="s">
-        <v>10</v>
+        <v>4099</v>
       </c>
       <c r="G1075" s="1" t="s">
-        <v>10</v>
+        <v>4100</v>
       </c>
       <c r="H1075" s="1" t="s">
-        <v>10</v>
+        <v>4101</v>
       </c>
       <c r="I1075" s="1" t="s">
-        <v>10</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1076" spans="2:9">
       <c r="B1076" s="1" t="s">
-        <v>4233</v>
+        <v>2193</v>
       </c>
       <c r="C1076" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>4231</v>
+        <v>2191</v>
       </c>
       <c r="E1076" s="1" t="s">
-        <v>4232</v>
+        <v>2192</v>
       </c>
       <c r="F1076" s="1" t="s">
         <v>10</v>
@@ -46334,42 +46358,42 @@
     </row>
     <row r="1077" spans="2:9">
       <c r="B1077" s="1" t="s">
-        <v>382</v>
+        <v>1362</v>
       </c>
       <c r="C1077" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>377</v>
+        <v>1361</v>
       </c>
       <c r="E1077" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="F1077" s="1" t="s">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="G1077" s="1" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="H1077" s="1" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="I1077" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1078" spans="2:9" ht="30">
       <c r="B1078" s="1" t="s">
-        <v>1277</v>
+        <v>4992</v>
       </c>
       <c r="C1078" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>1275</v>
+        <v>10</v>
       </c>
       <c r="E1078" s="1" t="s">
-        <v>1276</v>
+        <v>10</v>
       </c>
       <c r="F1078" s="1" t="s">
         <v>10</v>
@@ -46378,24 +46402,24 @@
         <v>10</v>
       </c>
       <c r="H1078" s="1" t="s">
-        <v>10</v>
+        <v>4991</v>
       </c>
       <c r="I1078" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1079" spans="2:9">
       <c r="B1079" s="1" t="s">
-        <v>2919</v>
+        <v>1806</v>
       </c>
       <c r="C1079" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>2917</v>
+        <v>1805</v>
       </c>
       <c r="E1079" s="1" t="s">
-        <v>2918</v>
+        <v>9</v>
       </c>
       <c r="F1079" s="1" t="s">
         <v>10</v>
@@ -46412,16 +46436,16 @@
     </row>
     <row r="1080" spans="2:9">
       <c r="B1080" s="1" t="s">
-        <v>4906</v>
+        <v>3846</v>
       </c>
       <c r="C1080" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>10</v>
+        <v>3845</v>
       </c>
       <c r="E1080" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1080" s="1" t="s">
         <v>10</v>
@@ -46430,24 +46454,24 @@
         <v>10</v>
       </c>
       <c r="H1080" s="1" t="s">
-        <v>4905</v>
+        <v>10</v>
       </c>
       <c r="I1080" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1081" spans="2:9">
       <c r="B1081" s="1" t="s">
-        <v>3962</v>
+        <v>1194</v>
       </c>
       <c r="C1081" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>3960</v>
+        <v>1192</v>
       </c>
       <c r="E1081" s="1" t="s">
-        <v>3961</v>
+        <v>1193</v>
       </c>
       <c r="F1081" s="1" t="s">
         <v>10</v>
@@ -46464,16 +46488,16 @@
     </row>
     <row r="1082" spans="2:9">
       <c r="B1082" s="1" t="s">
-        <v>571</v>
+        <v>1543</v>
       </c>
       <c r="C1082" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>569</v>
+        <v>1541</v>
       </c>
       <c r="E1082" s="1" t="s">
-        <v>570</v>
+        <v>1542</v>
       </c>
       <c r="F1082" s="1" t="s">
         <v>10</v>
@@ -46490,16 +46514,16 @@
     </row>
     <row r="1083" spans="2:9">
       <c r="B1083" s="1" t="s">
-        <v>2967</v>
+        <v>745</v>
       </c>
       <c r="C1083" s="1" t="s">
-        <v>12</v>
+        <v>746</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>2964</v>
+        <v>742</v>
       </c>
       <c r="E1083" s="1" t="s">
-        <v>2965</v>
+        <v>743</v>
       </c>
       <c r="F1083" s="1" t="s">
         <v>10</v>
@@ -46508,7 +46532,7 @@
         <v>10</v>
       </c>
       <c r="H1083" s="1" t="s">
-        <v>2966</v>
+        <v>744</v>
       </c>
       <c r="I1083" s="1" t="s">
         <v>12</v>
@@ -46516,22 +46540,22 @@
     </row>
     <row r="1084" spans="2:9" ht="30">
       <c r="B1084" s="1" t="s">
-        <v>80</v>
+        <v>745</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>12</v>
+        <v>746</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E1084" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F1084" s="1" t="s">
-        <v>10</v>
+        <v>4796</v>
       </c>
       <c r="G1084" s="1" t="s">
-        <v>10</v>
+        <v>4797</v>
       </c>
       <c r="H1084" s="1" t="s">
         <v>10</v>
@@ -46542,16 +46566,16 @@
     </row>
     <row r="1085" spans="2:9">
       <c r="B1085" s="1" t="s">
-        <v>2228</v>
+        <v>3663</v>
       </c>
       <c r="C1085" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>2227</v>
+        <v>3662</v>
       </c>
       <c r="E1085" s="1" t="s">
-        <v>1365</v>
+        <v>692</v>
       </c>
       <c r="F1085" s="1" t="s">
         <v>10</v>
@@ -46568,16 +46592,16 @@
     </row>
     <row r="1086" spans="2:9">
       <c r="B1086" s="1" t="s">
-        <v>2167</v>
+        <v>4233</v>
       </c>
       <c r="C1086" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>2166</v>
+        <v>4231</v>
       </c>
       <c r="E1086" s="1" t="s">
-        <v>9</v>
+        <v>4232</v>
       </c>
       <c r="F1086" s="1" t="s">
         <v>10</v>
@@ -46594,42 +46618,42 @@
     </row>
     <row r="1087" spans="2:9">
       <c r="B1087" s="1" t="s">
-        <v>4310</v>
+        <v>382</v>
       </c>
       <c r="C1087" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>4307</v>
+        <v>377</v>
       </c>
       <c r="E1087" s="1" t="s">
-        <v>2815</v>
+        <v>378</v>
       </c>
       <c r="F1087" s="1" t="s">
-        <v>2802</v>
+        <v>379</v>
       </c>
       <c r="G1087" s="1" t="s">
-        <v>4308</v>
+        <v>380</v>
       </c>
       <c r="H1087" s="1" t="s">
-        <v>4309</v>
+        <v>381</v>
       </c>
       <c r="I1087" s="1" t="s">
-        <v>2801</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1088" spans="2:9">
       <c r="B1088" s="1" t="s">
-        <v>397</v>
+        <v>1277</v>
       </c>
       <c r="C1088" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>396</v>
+        <v>1275</v>
       </c>
       <c r="E1088" s="1" t="s">
-        <v>9</v>
+        <v>1276</v>
       </c>
       <c r="F1088" s="1" t="s">
         <v>10</v>
@@ -46646,16 +46670,16 @@
     </row>
     <row r="1089" spans="2:9" ht="45">
       <c r="B1089" s="1" t="s">
-        <v>2663</v>
+        <v>2919</v>
       </c>
       <c r="C1089" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>2660</v>
+        <v>2917</v>
       </c>
       <c r="E1089" s="1" t="s">
-        <v>1556</v>
+        <v>2918</v>
       </c>
       <c r="F1089" s="1" t="s">
         <v>10</v>
@@ -46664,15 +46688,15 @@
         <v>10</v>
       </c>
       <c r="H1089" s="1" t="s">
-        <v>2661</v>
+        <v>10</v>
       </c>
       <c r="I1089" s="1" t="s">
-        <v>2662</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1090" spans="2:9">
       <c r="B1090" s="1" t="s">
-        <v>2663</v>
+        <v>4906</v>
       </c>
       <c r="C1090" s="1" t="s">
         <v>12</v>
@@ -46684,13 +46708,13 @@
         <v>10</v>
       </c>
       <c r="F1090" s="1" t="s">
-        <v>4851</v>
+        <v>10</v>
       </c>
       <c r="G1090" s="1" t="s">
-        <v>4852</v>
+        <v>10</v>
       </c>
       <c r="H1090" s="1" t="s">
-        <v>4853</v>
+        <v>4905</v>
       </c>
       <c r="I1090" s="1" t="s">
         <v>12</v>
@@ -46698,16 +46722,16 @@
     </row>
     <row r="1091" spans="2:9">
       <c r="B1091" s="1" t="s">
-        <v>819</v>
+        <v>3962</v>
       </c>
       <c r="C1091" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>817</v>
+        <v>3960</v>
       </c>
       <c r="E1091" s="1" t="s">
-        <v>818</v>
+        <v>3961</v>
       </c>
       <c r="F1091" s="1" t="s">
         <v>10</v>
@@ -46724,42 +46748,42 @@
     </row>
     <row r="1092" spans="2:9">
       <c r="B1092" s="1" t="s">
-        <v>2781</v>
+        <v>571</v>
       </c>
       <c r="C1092" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>2776</v>
+        <v>569</v>
       </c>
       <c r="E1092" s="1" t="s">
-        <v>2777</v>
+        <v>570</v>
       </c>
       <c r="F1092" s="1" t="s">
-        <v>2778</v>
+        <v>10</v>
       </c>
       <c r="G1092" s="1" t="s">
-        <v>2779</v>
+        <v>10</v>
       </c>
       <c r="H1092" s="1" t="s">
-        <v>2780</v>
+        <v>10</v>
       </c>
       <c r="I1092" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1093" spans="2:9">
       <c r="B1093" s="1" t="s">
-        <v>1659</v>
+        <v>2967</v>
       </c>
       <c r="C1093" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1093" s="1" t="s">
-        <v>1658</v>
+        <v>2964</v>
       </c>
       <c r="E1093" s="1" t="s">
-        <v>9</v>
+        <v>2965</v>
       </c>
       <c r="F1093" s="1" t="s">
         <v>10</v>
@@ -46768,24 +46792,24 @@
         <v>10</v>
       </c>
       <c r="H1093" s="1" t="s">
-        <v>10</v>
+        <v>2966</v>
       </c>
       <c r="I1093" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1094" spans="2:9">
       <c r="B1094" s="1" t="s">
-        <v>2690</v>
+        <v>80</v>
       </c>
       <c r="C1094" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>2689</v>
+        <v>78</v>
       </c>
       <c r="E1094" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F1094" s="1" t="s">
         <v>10</v>
@@ -46802,16 +46826,16 @@
     </row>
     <row r="1095" spans="2:9" ht="30">
       <c r="B1095" s="1" t="s">
-        <v>1597</v>
+        <v>2228</v>
       </c>
       <c r="C1095" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>1595</v>
+        <v>2227</v>
       </c>
       <c r="E1095" s="1" t="s">
-        <v>1596</v>
+        <v>1365</v>
       </c>
       <c r="F1095" s="1" t="s">
         <v>10</v>
@@ -46828,22 +46852,22 @@
     </row>
     <row r="1096" spans="2:9" ht="30">
       <c r="B1096" s="1" t="s">
-        <v>4011</v>
+        <v>2167</v>
       </c>
       <c r="C1096" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>4007</v>
+        <v>2166</v>
       </c>
       <c r="E1096" s="1" t="s">
-        <v>4008</v>
+        <v>9</v>
       </c>
       <c r="F1096" s="1" t="s">
-        <v>4009</v>
+        <v>10</v>
       </c>
       <c r="G1096" s="1" t="s">
-        <v>4010</v>
+        <v>10</v>
       </c>
       <c r="H1096" s="1" t="s">
         <v>10</v>
@@ -46854,42 +46878,42 @@
     </row>
     <row r="1097" spans="2:9">
       <c r="B1097" s="1" t="s">
-        <v>4011</v>
+        <v>4310</v>
       </c>
       <c r="C1097" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>10</v>
+        <v>4307</v>
       </c>
       <c r="E1097" s="1" t="s">
-        <v>10</v>
+        <v>2815</v>
       </c>
       <c r="F1097" s="1" t="s">
-        <v>4332</v>
+        <v>2802</v>
       </c>
       <c r="G1097" s="1" t="s">
-        <v>4333</v>
+        <v>4308</v>
       </c>
       <c r="H1097" s="1" t="s">
-        <v>4334</v>
+        <v>4309</v>
       </c>
       <c r="I1097" s="1" t="s">
-        <v>4335</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1098" spans="2:9">
       <c r="B1098" s="1" t="s">
-        <v>4011</v>
+        <v>397</v>
       </c>
       <c r="C1098" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="E1098" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1098" s="1" t="s">
         <v>10</v>
@@ -46898,24 +46922,24 @@
         <v>10</v>
       </c>
       <c r="H1098" s="1" t="s">
-        <v>4931</v>
+        <v>10</v>
       </c>
       <c r="I1098" s="1" t="s">
-        <v>4335</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1099" spans="2:9">
       <c r="B1099" s="1" t="s">
-        <v>2977</v>
+        <v>2663</v>
       </c>
       <c r="C1099" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>2976</v>
+        <v>2660</v>
       </c>
       <c r="E1099" s="1" t="s">
-        <v>110</v>
+        <v>1556</v>
       </c>
       <c r="F1099" s="1" t="s">
         <v>10</v>
@@ -46924,50 +46948,50 @@
         <v>10</v>
       </c>
       <c r="H1099" s="1" t="s">
-        <v>10</v>
+        <v>2661</v>
       </c>
       <c r="I1099" s="1" t="s">
-        <v>10</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1100" spans="2:9">
       <c r="B1100" s="1" t="s">
-        <v>2611</v>
+        <v>2663</v>
       </c>
       <c r="C1100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>2609</v>
+        <v>10</v>
       </c>
       <c r="E1100" s="1" t="s">
-        <v>2610</v>
+        <v>10</v>
       </c>
       <c r="F1100" s="1" t="s">
-        <v>10</v>
+        <v>4851</v>
       </c>
       <c r="G1100" s="1" t="s">
-        <v>10</v>
+        <v>4852</v>
       </c>
       <c r="H1100" s="1" t="s">
-        <v>10</v>
+        <v>4853</v>
       </c>
       <c r="I1100" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1101" spans="2:9">
       <c r="B1101" s="1" t="s">
-        <v>912</v>
+        <v>819</v>
       </c>
       <c r="C1101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>911</v>
+        <v>817</v>
       </c>
       <c r="E1101" s="1" t="s">
-        <v>9</v>
+        <v>818</v>
       </c>
       <c r="F1101" s="1" t="s">
         <v>10</v>
@@ -46984,25 +47008,25 @@
     </row>
     <row r="1102" spans="2:9" ht="30">
       <c r="B1102" s="1" t="s">
-        <v>440</v>
+        <v>2781</v>
       </c>
       <c r="C1102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>435</v>
+        <v>2776</v>
       </c>
       <c r="E1102" s="1" t="s">
-        <v>436</v>
+        <v>2777</v>
       </c>
       <c r="F1102" s="1" t="s">
-        <v>437</v>
+        <v>2778</v>
       </c>
       <c r="G1102" s="1" t="s">
-        <v>438</v>
+        <v>2779</v>
       </c>
       <c r="H1102" s="1" t="s">
-        <v>439</v>
+        <v>2780</v>
       </c>
       <c r="I1102" s="1" t="s">
         <v>12</v>
@@ -47010,68 +47034,68 @@
     </row>
     <row r="1103" spans="2:9">
       <c r="B1103" s="1" t="s">
-        <v>440</v>
+        <v>1659</v>
       </c>
       <c r="C1103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>10</v>
+        <v>1658</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1103" s="1" t="s">
-        <v>4431</v>
+        <v>10</v>
       </c>
       <c r="G1103" s="1" t="s">
-        <v>593</v>
+        <v>10</v>
       </c>
       <c r="H1103" s="1" t="s">
-        <v>4432</v>
+        <v>10</v>
       </c>
       <c r="I1103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1104" spans="2:9">
       <c r="B1104" s="1" t="s">
-        <v>67</v>
+        <v>2690</v>
       </c>
       <c r="C1104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>63</v>
+        <v>2689</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1104" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G1104" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H1104" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I1104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105" spans="2:9">
       <c r="B1105" s="1" t="s">
-        <v>3752</v>
+        <v>2038</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>12</v>
+        <v>2039</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>3750</v>
+        <v>2036</v>
       </c>
       <c r="E1105" s="1" t="s">
-        <v>3751</v>
+        <v>2037</v>
       </c>
       <c r="F1105" s="1" t="s">
         <v>10</v>
@@ -47088,94 +47112,94 @@
     </row>
     <row r="1106" spans="2:9">
       <c r="B1106" s="1" t="s">
-        <v>2994</v>
+        <v>1597</v>
       </c>
       <c r="C1106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>2991</v>
+        <v>1595</v>
       </c>
       <c r="E1106" s="1" t="s">
-        <v>344</v>
+        <v>1596</v>
       </c>
       <c r="F1106" s="1" t="s">
-        <v>2992</v>
+        <v>10</v>
       </c>
       <c r="G1106" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H1106" s="1" t="s">
-        <v>2993</v>
+        <v>10</v>
       </c>
       <c r="I1106" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1107" spans="2:9">
       <c r="B1107" s="1" t="s">
-        <v>1185</v>
+        <v>4011</v>
       </c>
       <c r="C1107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>1180</v>
+        <v>4007</v>
       </c>
       <c r="E1107" s="1" t="s">
-        <v>1181</v>
+        <v>4008</v>
       </c>
       <c r="F1107" s="1" t="s">
-        <v>1182</v>
+        <v>4009</v>
       </c>
       <c r="G1107" s="1" t="s">
-        <v>1183</v>
+        <v>4010</v>
       </c>
       <c r="H1107" s="1" t="s">
-        <v>1184</v>
+        <v>10</v>
       </c>
       <c r="I1107" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1108" spans="2:9">
       <c r="B1108" s="1" t="s">
-        <v>3258</v>
+        <v>4011</v>
       </c>
       <c r="C1108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>3256</v>
+        <v>10</v>
       </c>
       <c r="E1108" s="1" t="s">
-        <v>3257</v>
+        <v>10</v>
       </c>
       <c r="F1108" s="1" t="s">
-        <v>10</v>
+        <v>4332</v>
       </c>
       <c r="G1108" s="1" t="s">
-        <v>10</v>
+        <v>4333</v>
       </c>
       <c r="H1108" s="1" t="s">
-        <v>10</v>
+        <v>4334</v>
       </c>
       <c r="I1108" s="1" t="s">
-        <v>10</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1109" spans="2:9">
       <c r="B1109" s="1" t="s">
-        <v>657</v>
+        <v>4011</v>
       </c>
       <c r="C1109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>655</v>
+        <v>10</v>
       </c>
       <c r="E1109" s="1" t="s">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="F1109" s="1" t="s">
         <v>10</v>
@@ -47184,24 +47208,24 @@
         <v>10</v>
       </c>
       <c r="H1109" s="1" t="s">
-        <v>10</v>
+        <v>4931</v>
       </c>
       <c r="I1109" s="1" t="s">
-        <v>10</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1110" spans="2:9">
       <c r="B1110" s="1" t="s">
-        <v>1880</v>
+        <v>2977</v>
       </c>
       <c r="C1110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>1879</v>
+        <v>2976</v>
       </c>
       <c r="E1110" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="F1110" s="1" t="s">
         <v>10</v>
@@ -47218,22 +47242,22 @@
     </row>
     <row r="1111" spans="2:9" ht="30">
       <c r="B1111" s="1" t="s">
-        <v>3476</v>
+        <v>2611</v>
       </c>
       <c r="C1111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1111" s="1" t="s">
-        <v>3474</v>
+        <v>2609</v>
       </c>
       <c r="E1111" s="1" t="s">
-        <v>158</v>
+        <v>2610</v>
       </c>
       <c r="F1111" s="1" t="s">
-        <v>3475</v>
+        <v>10</v>
       </c>
       <c r="G1111" s="1" t="s">
-        <v>3220</v>
+        <v>10</v>
       </c>
       <c r="H1111" s="1" t="s">
         <v>10</v>
@@ -47244,13 +47268,13 @@
     </row>
     <row r="1112" spans="2:9" ht="30">
       <c r="B1112" s="1" t="s">
-        <v>2222</v>
+        <v>912</v>
       </c>
       <c r="C1112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1112" s="1" t="s">
-        <v>2221</v>
+        <v>911</v>
       </c>
       <c r="E1112" s="1" t="s">
         <v>9</v>
@@ -47270,77 +47294,77 @@
     </row>
     <row r="1113" spans="2:9">
       <c r="B1113" s="1" t="s">
-        <v>227</v>
+        <v>440</v>
       </c>
       <c r="C1113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="E1113" s="1" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="F1113" s="1" t="s">
-        <v>10</v>
+        <v>437</v>
       </c>
       <c r="G1113" s="1" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="H1113" s="1" t="s">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="I1113" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1114" spans="2:9">
       <c r="B1114" s="1" t="s">
-        <v>2669</v>
+        <v>440</v>
       </c>
       <c r="C1114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1114" s="1" t="s">
-        <v>2667</v>
+        <v>10</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>2668</v>
+        <v>10</v>
       </c>
       <c r="F1114" s="1" t="s">
-        <v>10</v>
+        <v>4431</v>
       </c>
       <c r="G1114" s="1" t="s">
-        <v>10</v>
+        <v>593</v>
       </c>
       <c r="H1114" s="1" t="s">
-        <v>10</v>
+        <v>4432</v>
       </c>
       <c r="I1114" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1115" spans="2:9" ht="30">
       <c r="B1115" s="1" t="s">
-        <v>876</v>
+        <v>67</v>
       </c>
       <c r="C1115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1115" s="1" t="s">
-        <v>874</v>
+        <v>63</v>
       </c>
       <c r="E1115" s="1" t="s">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="F1115" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G1115" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H1115" s="1" t="s">
-        <v>875</v>
+        <v>66</v>
       </c>
       <c r="I1115" s="1" t="s">
         <v>12</v>
@@ -47348,16 +47372,16 @@
     </row>
     <row r="1116" spans="2:9" ht="30">
       <c r="B1116" s="1" t="s">
-        <v>1791</v>
+        <v>3752</v>
       </c>
       <c r="C1116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>1790</v>
+        <v>3750</v>
       </c>
       <c r="E1116" s="1" t="s">
-        <v>9</v>
+        <v>3751</v>
       </c>
       <c r="F1116" s="1" t="s">
         <v>10</v>
@@ -47374,48 +47398,48 @@
     </row>
     <row r="1117" spans="2:9">
       <c r="B1117" s="1" t="s">
-        <v>3393</v>
+        <v>475</v>
       </c>
       <c r="C1117" s="1" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3390</v>
+        <v>470</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>2163</v>
+        <v>471</v>
       </c>
       <c r="F1117" s="1" t="s">
-        <v>3391</v>
+        <v>472</v>
       </c>
       <c r="G1117" s="1" t="s">
-        <v>3392</v>
+        <v>473</v>
       </c>
       <c r="H1117" s="1" t="s">
-        <v>10</v>
+        <v>472</v>
       </c>
       <c r="I1117" s="1" t="s">
-        <v>10</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1118" spans="2:9">
       <c r="B1118" s="1" t="s">
-        <v>3678</v>
+        <v>3104</v>
       </c>
       <c r="C1118" s="1" t="s">
-        <v>12</v>
+        <v>3105</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3676</v>
+        <v>3101</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>3677</v>
+        <v>3102</v>
       </c>
       <c r="F1118" s="1" t="s">
-        <v>10</v>
+        <v>3101</v>
       </c>
       <c r="G1118" s="1" t="s">
-        <v>10</v>
+        <v>3103</v>
       </c>
       <c r="H1118" s="1" t="s">
         <v>10</v>
@@ -47426,94 +47450,94 @@
     </row>
     <row r="1119" spans="2:9">
       <c r="B1119" s="1" t="s">
-        <v>3669</v>
+        <v>2994</v>
       </c>
       <c r="C1119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3668</v>
+        <v>2991</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>820</v>
+        <v>344</v>
       </c>
       <c r="F1119" s="1" t="s">
-        <v>10</v>
+        <v>2992</v>
       </c>
       <c r="G1119" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H1119" s="1" t="s">
-        <v>10</v>
+        <v>2993</v>
       </c>
       <c r="I1119" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1120" spans="2:9" ht="30">
       <c r="B1120" s="1" t="s">
-        <v>2676</v>
+        <v>1185</v>
       </c>
       <c r="C1120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>2674</v>
+        <v>1180</v>
       </c>
       <c r="E1120" s="1" t="s">
-        <v>570</v>
+        <v>1181</v>
       </c>
       <c r="F1120" s="1" t="s">
-        <v>10</v>
+        <v>1182</v>
       </c>
       <c r="G1120" s="1" t="s">
-        <v>10</v>
+        <v>1183</v>
       </c>
       <c r="H1120" s="1" t="s">
-        <v>2675</v>
+        <v>1184</v>
       </c>
       <c r="I1120" s="1" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1121" spans="2:9">
       <c r="B1121" s="1" t="s">
-        <v>1992</v>
+        <v>3258</v>
       </c>
       <c r="C1121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>1987</v>
+        <v>3256</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>1988</v>
+        <v>3257</v>
       </c>
       <c r="F1121" s="1" t="s">
-        <v>1989</v>
+        <v>10</v>
       </c>
       <c r="G1121" s="1" t="s">
-        <v>1990</v>
+        <v>10</v>
       </c>
       <c r="H1121" s="1" t="s">
-        <v>1991</v>
+        <v>10</v>
       </c>
       <c r="I1121" s="1" t="s">
-        <v>1990</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1122" spans="2:9" ht="30">
       <c r="B1122" s="1" t="s">
-        <v>4912</v>
+        <v>657</v>
       </c>
       <c r="C1122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>10</v>
+        <v>656</v>
       </c>
       <c r="F1122" s="1" t="s">
         <v>10</v>
@@ -47522,56 +47546,56 @@
         <v>10</v>
       </c>
       <c r="H1122" s="1" t="s">
-        <v>4911</v>
+        <v>10</v>
       </c>
       <c r="I1122" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1123" spans="2:9">
       <c r="B1123" s="1" t="s">
-        <v>4045</v>
+        <v>1880</v>
       </c>
       <c r="C1123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>4041</v>
+        <v>1879</v>
       </c>
       <c r="E1123" s="1" t="s">
-        <v>4042</v>
+        <v>9</v>
       </c>
       <c r="F1123" s="1" t="s">
-        <v>4041</v>
+        <v>10</v>
       </c>
       <c r="G1123" s="1" t="s">
-        <v>4043</v>
+        <v>10</v>
       </c>
       <c r="H1123" s="1" t="s">
-        <v>4041</v>
+        <v>10</v>
       </c>
       <c r="I1123" s="1" t="s">
-        <v>4044</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1124" spans="2:9">
       <c r="B1124" s="1" t="s">
-        <v>4045</v>
+        <v>3476</v>
       </c>
       <c r="C1124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>10</v>
+        <v>3474</v>
       </c>
       <c r="E1124" s="1" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F1124" s="1" t="s">
-        <v>4607</v>
+        <v>3475</v>
       </c>
       <c r="G1124" s="1" t="s">
-        <v>4608</v>
+        <v>3220</v>
       </c>
       <c r="H1124" s="1" t="s">
         <v>10</v>
@@ -47582,16 +47606,16 @@
     </row>
     <row r="1125" spans="2:9">
       <c r="B1125" s="1" t="s">
-        <v>4045</v>
+        <v>2222</v>
       </c>
       <c r="C1125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>10</v>
+        <v>2221</v>
       </c>
       <c r="E1125" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1125" s="1" t="s">
         <v>10</v>
@@ -47600,24 +47624,24 @@
         <v>10</v>
       </c>
       <c r="H1125" s="1" t="s">
-        <v>4972</v>
+        <v>10</v>
       </c>
       <c r="I1125" s="1" t="s">
-        <v>751</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1126" spans="2:9">
       <c r="B1126" s="1" t="s">
-        <v>1079</v>
+        <v>227</v>
       </c>
       <c r="C1126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>1078</v>
+        <v>225</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F1126" s="1" t="s">
         <v>10</v>
@@ -47634,16 +47658,16 @@
     </row>
     <row r="1127" spans="2:9">
       <c r="B1127" s="1" t="s">
-        <v>2274</v>
+        <v>2669</v>
       </c>
       <c r="C1127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>2273</v>
+        <v>2667</v>
       </c>
       <c r="E1127" s="1" t="s">
-        <v>9</v>
+        <v>2668</v>
       </c>
       <c r="F1127" s="1" t="s">
         <v>10</v>
@@ -47660,16 +47684,16 @@
     </row>
     <row r="1128" spans="2:9" ht="30">
       <c r="B1128" s="1" t="s">
-        <v>3189</v>
+        <v>876</v>
       </c>
       <c r="C1128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3187</v>
+        <v>874</v>
       </c>
       <c r="E1128" s="1" t="s">
-        <v>3188</v>
+        <v>378</v>
       </c>
       <c r="F1128" s="1" t="s">
         <v>10</v>
@@ -47678,102 +47702,102 @@
         <v>10</v>
       </c>
       <c r="H1128" s="1" t="s">
-        <v>10</v>
+        <v>875</v>
       </c>
       <c r="I1128" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1129" spans="2:9">
       <c r="B1129" s="1" t="s">
-        <v>3189</v>
+        <v>1791</v>
       </c>
       <c r="C1129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>10</v>
+        <v>1790</v>
       </c>
       <c r="E1129" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1129" s="1" t="s">
-        <v>4384</v>
+        <v>10</v>
       </c>
       <c r="G1129" s="1" t="s">
-        <v>4385</v>
+        <v>10</v>
       </c>
       <c r="H1129" s="1" t="s">
-        <v>4386</v>
+        <v>10</v>
       </c>
       <c r="I1129" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1130" spans="2:9">
       <c r="B1130" s="1" t="s">
-        <v>2210</v>
+        <v>3733</v>
       </c>
       <c r="C1130" s="1" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F1130" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G1130" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="H1130" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="I1130" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1130" s="1" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E1130" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="F1130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1130" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1131" spans="2:9">
       <c r="B1131" s="1" t="s">
-        <v>2411</v>
+        <v>3393</v>
       </c>
       <c r="C1131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>2406</v>
+        <v>3390</v>
       </c>
       <c r="E1131" s="1" t="s">
-        <v>2407</v>
+        <v>2163</v>
       </c>
       <c r="F1131" s="1" t="s">
-        <v>2408</v>
+        <v>3391</v>
       </c>
       <c r="G1131" s="1" t="s">
-        <v>2409</v>
+        <v>3392</v>
       </c>
       <c r="H1131" s="1" t="s">
-        <v>2410</v>
+        <v>10</v>
       </c>
       <c r="I1131" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1132" spans="2:9" ht="30">
       <c r="B1132" s="1" t="s">
-        <v>2979</v>
+        <v>3678</v>
       </c>
       <c r="C1132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>2978</v>
+        <v>3676</v>
       </c>
       <c r="E1132" s="1" t="s">
-        <v>692</v>
+        <v>3677</v>
       </c>
       <c r="F1132" s="1" t="s">
         <v>10</v>
@@ -47790,16 +47814,16 @@
     </row>
     <row r="1133" spans="2:9">
       <c r="B1133" s="1" t="s">
-        <v>4152</v>
+        <v>3669</v>
       </c>
       <c r="C1133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>4151</v>
+        <v>3668</v>
       </c>
       <c r="E1133" s="1" t="s">
-        <v>9</v>
+        <v>820</v>
       </c>
       <c r="F1133" s="1" t="s">
         <v>10</v>
@@ -47816,16 +47840,16 @@
     </row>
     <row r="1134" spans="2:9">
       <c r="B1134" s="1" t="s">
-        <v>898</v>
+        <v>2676</v>
       </c>
       <c r="C1134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>897</v>
+        <v>2674</v>
       </c>
       <c r="E1134" s="1" t="s">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="F1134" s="1" t="s">
         <v>10</v>
@@ -47834,41 +47858,41 @@
         <v>10</v>
       </c>
       <c r="H1134" s="1" t="s">
-        <v>10</v>
+        <v>2675</v>
       </c>
       <c r="I1134" s="1" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1135" spans="2:9" ht="30">
       <c r="B1135" s="1" t="s">
-        <v>42</v>
+        <v>1992</v>
       </c>
       <c r="C1135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>37</v>
+        <v>1987</v>
       </c>
       <c r="E1135" s="1" t="s">
-        <v>38</v>
+        <v>1988</v>
       </c>
       <c r="F1135" s="1" t="s">
-        <v>39</v>
+        <v>1989</v>
       </c>
       <c r="G1135" s="1" t="s">
-        <v>40</v>
+        <v>1990</v>
       </c>
       <c r="H1135" s="1" t="s">
-        <v>41</v>
+        <v>1991</v>
       </c>
       <c r="I1135" s="1" t="s">
-        <v>12</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1136" spans="2:9">
       <c r="B1136" s="1" t="s">
-        <v>42</v>
+        <v>4912</v>
       </c>
       <c r="C1136" s="1" t="s">
         <v>12</v>
@@ -47880,62 +47904,62 @@
         <v>10</v>
       </c>
       <c r="F1136" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G1136" s="1" t="s">
-        <v>4602</v>
+        <v>10</v>
       </c>
       <c r="H1136" s="1" t="s">
-        <v>10</v>
+        <v>4911</v>
       </c>
       <c r="I1136" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1137" spans="2:9">
       <c r="B1137" s="1" t="s">
-        <v>4351</v>
+        <v>4045</v>
       </c>
       <c r="C1137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>10</v>
+        <v>4041</v>
       </c>
       <c r="E1137" s="1" t="s">
-        <v>10</v>
+        <v>4042</v>
       </c>
       <c r="F1137" s="1" t="s">
-        <v>4348</v>
+        <v>4041</v>
       </c>
       <c r="G1137" s="1" t="s">
-        <v>4349</v>
+        <v>4043</v>
       </c>
       <c r="H1137" s="1" t="s">
-        <v>4350</v>
+        <v>4041</v>
       </c>
       <c r="I1137" s="1" t="s">
-        <v>293</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1138" spans="2:9" ht="30">
       <c r="B1138" s="1" t="s">
-        <v>860</v>
+        <v>4045</v>
       </c>
       <c r="C1138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>858</v>
+        <v>10</v>
       </c>
       <c r="E1138" s="1" t="s">
-        <v>859</v>
+        <v>10</v>
       </c>
       <c r="F1138" s="1" t="s">
-        <v>10</v>
+        <v>4607</v>
       </c>
       <c r="G1138" s="1" t="s">
-        <v>10</v>
+        <v>4608</v>
       </c>
       <c r="H1138" s="1" t="s">
         <v>10</v>
@@ -47946,16 +47970,16 @@
     </row>
     <row r="1139" spans="2:9">
       <c r="B1139" s="1" t="s">
-        <v>830</v>
+        <v>4045</v>
       </c>
       <c r="C1139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>827</v>
+        <v>10</v>
       </c>
       <c r="E1139" s="1" t="s">
-        <v>828</v>
+        <v>10</v>
       </c>
       <c r="F1139" s="1" t="s">
         <v>10</v>
@@ -47964,47 +47988,50 @@
         <v>10</v>
       </c>
       <c r="H1139" s="1" t="s">
-        <v>829</v>
+        <v>4972</v>
       </c>
       <c r="I1139" s="1" t="s">
-        <v>12</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1140" spans="2:9">
       <c r="B1140" s="1" t="s">
-        <v>2566</v>
+        <v>1079</v>
       </c>
       <c r="C1140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>2563</v>
+        <v>1078</v>
       </c>
       <c r="E1140" s="1" t="s">
-        <v>2564</v>
+        <v>9</v>
       </c>
       <c r="F1140" s="1" t="s">
-        <v>2563</v>
+        <v>10</v>
+      </c>
+      <c r="G1140" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H1140" s="1" t="s">
-        <v>2563</v>
+        <v>10</v>
       </c>
       <c r="I1140" s="1" t="s">
-        <v>2565</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1141" spans="2:9">
       <c r="B1141" s="1" t="s">
-        <v>3224</v>
+        <v>2274</v>
       </c>
       <c r="C1141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3221</v>
+        <v>2273</v>
       </c>
       <c r="E1141" s="1" t="s">
-        <v>3222</v>
+        <v>9</v>
       </c>
       <c r="F1141" s="1" t="s">
         <v>10</v>
@@ -48013,30 +48040,30 @@
         <v>10</v>
       </c>
       <c r="H1141" s="1" t="s">
-        <v>3223</v>
+        <v>10</v>
       </c>
       <c r="I1141" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1142" spans="2:9">
       <c r="B1142" s="1" t="s">
-        <v>3685</v>
+        <v>3189</v>
       </c>
       <c r="C1142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3683</v>
+        <v>3187</v>
       </c>
       <c r="E1142" s="1" t="s">
-        <v>9</v>
+        <v>3188</v>
       </c>
       <c r="F1142" s="1" t="s">
-        <v>3684</v>
+        <v>10</v>
       </c>
       <c r="G1142" s="1" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="H1142" s="1" t="s">
         <v>10</v>
@@ -48047,7 +48074,7 @@
     </row>
     <row r="1143" spans="2:9">
       <c r="B1143" s="1" t="s">
-        <v>3685</v>
+        <v>3189</v>
       </c>
       <c r="C1143" s="1" t="s">
         <v>12</v>
@@ -48059,82 +48086,82 @@
         <v>10</v>
       </c>
       <c r="F1143" s="1" t="s">
-        <v>4538</v>
+        <v>4384</v>
       </c>
       <c r="G1143" s="1" t="s">
-        <v>336</v>
+        <v>4385</v>
       </c>
       <c r="H1143" s="1" t="s">
-        <v>10</v>
+        <v>4386</v>
       </c>
       <c r="I1143" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1144" spans="2:9">
       <c r="B1144" s="1" t="s">
-        <v>4413</v>
+        <v>2210</v>
       </c>
       <c r="C1144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>10</v>
+        <v>2208</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>10</v>
+        <v>2209</v>
       </c>
       <c r="F1144" s="1" t="s">
-        <v>4411</v>
+        <v>10</v>
       </c>
       <c r="G1144" s="1" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="H1144" s="1" t="s">
-        <v>4412</v>
+        <v>10</v>
       </c>
       <c r="I1144" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1145" spans="2:9">
       <c r="B1145" s="1" t="s">
-        <v>643</v>
+        <v>2411</v>
       </c>
       <c r="C1145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>642</v>
+        <v>2406</v>
       </c>
       <c r="E1145" s="1" t="s">
-        <v>9</v>
+        <v>2407</v>
       </c>
       <c r="F1145" s="1" t="s">
-        <v>10</v>
+        <v>2408</v>
       </c>
       <c r="G1145" s="1" t="s">
-        <v>10</v>
+        <v>2409</v>
       </c>
       <c r="H1145" s="1" t="s">
-        <v>10</v>
+        <v>2410</v>
       </c>
       <c r="I1145" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1146" spans="2:9">
       <c r="B1146" s="1" t="s">
-        <v>4933</v>
+        <v>2979</v>
       </c>
       <c r="C1146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>10</v>
+        <v>2978</v>
       </c>
       <c r="E1146" s="1" t="s">
-        <v>10</v>
+        <v>692</v>
       </c>
       <c r="F1146" s="1" t="s">
         <v>10</v>
@@ -48143,24 +48170,24 @@
         <v>10</v>
       </c>
       <c r="H1146" s="1" t="s">
-        <v>4932</v>
+        <v>10</v>
       </c>
       <c r="I1146" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1147" spans="2:9">
       <c r="B1147" s="1" t="s">
-        <v>1620</v>
+        <v>4152</v>
       </c>
       <c r="C1147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>1618</v>
+        <v>4151</v>
       </c>
       <c r="E1147" s="1" t="s">
-        <v>1619</v>
+        <v>9</v>
       </c>
       <c r="F1147" s="1" t="s">
         <v>10</v>
@@ -48177,16 +48204,16 @@
     </row>
     <row r="1148" spans="2:9">
       <c r="B1148" s="1" t="s">
-        <v>1620</v>
+        <v>898</v>
       </c>
       <c r="C1148" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>10</v>
+        <v>897</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="F1148" s="1" t="s">
         <v>10</v>
@@ -48195,108 +48222,108 @@
         <v>10</v>
       </c>
       <c r="H1148" s="1" t="s">
-        <v>4929</v>
+        <v>10</v>
       </c>
       <c r="I1148" s="1" t="s">
-        <v>4930</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1149" spans="2:9" ht="45">
       <c r="B1149" s="1" t="s">
-        <v>4354</v>
+        <v>42</v>
       </c>
       <c r="C1149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E1149" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F1149" s="1" t="s">
-        <v>4353</v>
+        <v>39</v>
       </c>
       <c r="G1149" s="1" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="H1149" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I1149" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1150" spans="2:9">
       <c r="B1150" s="1" t="s">
-        <v>460</v>
+        <v>42</v>
       </c>
       <c r="C1150" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="E1150" s="1" t="s">
-        <v>457</v>
+        <v>10</v>
       </c>
       <c r="F1150" s="1" t="s">
-        <v>458</v>
+        <v>37</v>
       </c>
       <c r="G1150" s="1" t="s">
-        <v>438</v>
+        <v>4602</v>
       </c>
       <c r="H1150" s="1" t="s">
-        <v>459</v>
+        <v>10</v>
       </c>
       <c r="I1150" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1151" spans="2:9">
       <c r="B1151" s="1" t="s">
-        <v>3509</v>
+        <v>4351</v>
       </c>
       <c r="C1151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>3508</v>
+        <v>10</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1151" s="1" t="s">
-        <v>10</v>
+        <v>4348</v>
       </c>
       <c r="G1151" s="1" t="s">
-        <v>10</v>
+        <v>4349</v>
       </c>
       <c r="H1151" s="1" t="s">
-        <v>10</v>
+        <v>4350</v>
       </c>
       <c r="I1151" s="1" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1152" spans="2:9">
       <c r="B1152" s="1" t="s">
-        <v>4006</v>
+        <v>4650</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>12</v>
+        <v>4651</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>4004</v>
+        <v>10</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>4005</v>
+        <v>10</v>
       </c>
       <c r="F1152" s="1" t="s">
-        <v>10</v>
+        <v>4648</v>
       </c>
       <c r="G1152" s="1" t="s">
-        <v>10</v>
+        <v>4649</v>
       </c>
       <c r="H1152" s="1" t="s">
         <v>10</v>
@@ -48307,16 +48334,16 @@
     </row>
     <row r="1153" spans="2:9" ht="30">
       <c r="B1153" s="1" t="s">
-        <v>3913</v>
+        <v>860</v>
       </c>
       <c r="C1153" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3912</v>
+        <v>858</v>
       </c>
       <c r="E1153" s="1" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="F1153" s="1" t="s">
         <v>10</v>
@@ -48333,16 +48360,16 @@
     </row>
     <row r="1154" spans="2:9">
       <c r="B1154" s="1" t="s">
-        <v>1216</v>
+        <v>830</v>
       </c>
       <c r="C1154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>1215</v>
+        <v>827</v>
       </c>
       <c r="E1154" s="1" t="s">
-        <v>9</v>
+        <v>828</v>
       </c>
       <c r="F1154" s="1" t="s">
         <v>10</v>
@@ -48351,79 +48378,79 @@
         <v>10</v>
       </c>
       <c r="H1154" s="1" t="s">
-        <v>10</v>
+        <v>829</v>
       </c>
       <c r="I1154" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1155" spans="2:9">
       <c r="B1155" s="1" t="s">
-        <v>11</v>
+        <v>2566</v>
       </c>
       <c r="C1155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>8</v>
+        <v>2563</v>
       </c>
       <c r="E1155" s="1" t="s">
-        <v>9</v>
+        <v>2564</v>
       </c>
       <c r="F1155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1155" s="1" t="s">
-        <v>10</v>
+        <v>2563</v>
       </c>
       <c r="H1155" s="1" t="s">
-        <v>10</v>
+        <v>2563</v>
       </c>
       <c r="I1155" s="1" t="s">
-        <v>10</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1156" spans="2:9">
       <c r="B1156" s="1" t="s">
-        <v>1945</v>
+        <v>3224</v>
       </c>
       <c r="C1156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>1943</v>
+        <v>3221</v>
       </c>
       <c r="E1156" s="1" t="s">
-        <v>158</v>
+        <v>3222</v>
       </c>
       <c r="F1156" s="1" t="s">
-        <v>1944</v>
+        <v>10</v>
       </c>
       <c r="G1156" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H1156" s="1" t="s">
-        <v>10</v>
+        <v>3223</v>
       </c>
       <c r="I1156" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1157" spans="2:9">
       <c r="B1157" s="1" t="s">
-        <v>194</v>
+        <v>3685</v>
       </c>
       <c r="C1157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>191</v>
+        <v>3683</v>
+      </c>
+      <c r="E1157" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F1157" s="1" t="s">
-        <v>192</v>
+        <v>3684</v>
       </c>
       <c r="G1157" s="1" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="H1157" s="1" t="s">
         <v>10</v>
@@ -48434,22 +48461,22 @@
     </row>
     <row r="1158" spans="2:9">
       <c r="B1158" s="1" t="s">
-        <v>3126</v>
+        <v>3685</v>
       </c>
       <c r="C1158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3124</v>
+        <v>10</v>
       </c>
       <c r="E1158" s="1" t="s">
-        <v>3125</v>
+        <v>10</v>
       </c>
       <c r="F1158" s="1" t="s">
-        <v>10</v>
+        <v>4538</v>
       </c>
       <c r="G1158" s="1" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="H1158" s="1" t="s">
         <v>10</v>
@@ -48460,39 +48487,39 @@
     </row>
     <row r="1159" spans="2:9">
       <c r="B1159" s="1" t="s">
-        <v>757</v>
+        <v>4413</v>
       </c>
       <c r="C1159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>752</v>
+        <v>10</v>
       </c>
       <c r="E1159" s="1" t="s">
-        <v>753</v>
+        <v>10</v>
       </c>
       <c r="F1159" s="1" t="s">
-        <v>754</v>
+        <v>4411</v>
       </c>
       <c r="G1159" s="1" t="s">
-        <v>755</v>
+        <v>236</v>
       </c>
       <c r="H1159" s="1" t="s">
-        <v>756</v>
+        <v>4412</v>
       </c>
       <c r="I1159" s="1" t="s">
-        <v>755</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1160" spans="2:9" ht="30">
       <c r="B1160" s="1" t="s">
-        <v>2243</v>
+        <v>643</v>
       </c>
       <c r="C1160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>2242</v>
+        <v>642</v>
       </c>
       <c r="E1160" s="1" t="s">
         <v>9</v>
@@ -48512,16 +48539,16 @@
     </row>
     <row r="1161" spans="2:9">
       <c r="B1161" s="1" t="s">
-        <v>3898</v>
+        <v>4933</v>
       </c>
       <c r="C1161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3897</v>
+        <v>10</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1161" s="1" t="s">
         <v>10</v>
@@ -48530,24 +48557,24 @@
         <v>10</v>
       </c>
       <c r="H1161" s="1" t="s">
-        <v>10</v>
+        <v>4932</v>
       </c>
       <c r="I1161" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1162" spans="2:9">
       <c r="B1162" s="1" t="s">
-        <v>2723</v>
+        <v>1620</v>
       </c>
       <c r="C1162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>2722</v>
+        <v>1618</v>
       </c>
       <c r="E1162" s="1" t="s">
-        <v>344</v>
+        <v>1619</v>
       </c>
       <c r="F1162" s="1" t="s">
         <v>10</v>
@@ -48564,94 +48591,94 @@
     </row>
     <row r="1163" spans="2:9">
       <c r="B1163" s="1" t="s">
-        <v>2624</v>
+        <v>1620</v>
       </c>
       <c r="C1163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>2619</v>
+        <v>10</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>2620</v>
+        <v>10</v>
       </c>
       <c r="F1163" s="1" t="s">
-        <v>2621</v>
+        <v>10</v>
       </c>
       <c r="G1163" s="1" t="s">
-        <v>2620</v>
+        <v>10</v>
       </c>
       <c r="H1163" s="1" t="s">
-        <v>2622</v>
+        <v>4929</v>
       </c>
       <c r="I1163" s="1" t="s">
-        <v>2623</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="1164" spans="2:9" ht="30">
       <c r="B1164" s="1" t="s">
-        <v>1164</v>
+        <v>4354</v>
       </c>
       <c r="C1164" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>1160</v>
+        <v>10</v>
       </c>
       <c r="E1164" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1164" s="1" t="s">
-        <v>1161</v>
+        <v>4353</v>
       </c>
       <c r="G1164" s="1" t="s">
-        <v>1162</v>
+        <v>336</v>
       </c>
       <c r="H1164" s="1" t="s">
-        <v>1163</v>
+        <v>10</v>
       </c>
       <c r="I1164" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1165" spans="2:9">
       <c r="B1165" s="1" t="s">
-        <v>1607</v>
+        <v>460</v>
       </c>
       <c r="C1165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>1601</v>
+        <v>456</v>
       </c>
       <c r="E1165" s="1" t="s">
-        <v>1602</v>
+        <v>457</v>
       </c>
       <c r="F1165" s="1" t="s">
-        <v>1603</v>
+        <v>458</v>
       </c>
       <c r="G1165" s="1" t="s">
-        <v>1604</v>
+        <v>438</v>
       </c>
       <c r="H1165" s="1" t="s">
-        <v>1605</v>
+        <v>459</v>
       </c>
       <c r="I1165" s="1" t="s">
-        <v>1606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1166" spans="2:9" ht="30">
       <c r="B1166" s="1" t="s">
-        <v>4254</v>
+        <v>3509</v>
       </c>
       <c r="C1166" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>4253</v>
+        <v>3508</v>
       </c>
       <c r="E1166" s="1" t="s">
-        <v>1186</v>
+        <v>9</v>
       </c>
       <c r="F1166" s="1" t="s">
         <v>10</v>
@@ -48668,16 +48695,16 @@
     </row>
     <row r="1167" spans="2:9">
       <c r="B1167" s="1" t="s">
-        <v>645</v>
+        <v>4006</v>
       </c>
       <c r="C1167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>644</v>
+        <v>4004</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>9</v>
+        <v>4005</v>
       </c>
       <c r="F1167" s="1" t="s">
         <v>10</v>
@@ -48694,48 +48721,48 @@
     </row>
     <row r="1168" spans="2:9">
       <c r="B1168" s="1" t="s">
-        <v>4654</v>
+        <v>3913</v>
       </c>
       <c r="C1168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>10</v>
+        <v>3912</v>
       </c>
       <c r="E1168" s="1" t="s">
-        <v>10</v>
+        <v>885</v>
       </c>
       <c r="F1168" s="1" t="s">
-        <v>3791</v>
+        <v>10</v>
       </c>
       <c r="G1168" s="1" t="s">
-        <v>4652</v>
+        <v>10</v>
       </c>
       <c r="H1168" s="1" t="s">
-        <v>4653</v>
+        <v>10</v>
       </c>
       <c r="I1168" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1169" spans="2:9">
       <c r="B1169" s="1" t="s">
-        <v>2463</v>
+        <v>4563</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>12</v>
+        <v>4564</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="E1169" s="1" t="s">
-        <v>2462</v>
+        <v>10</v>
       </c>
       <c r="F1169" s="1" t="s">
-        <v>10</v>
+        <v>4562</v>
       </c>
       <c r="G1169" s="1" t="s">
-        <v>10</v>
+        <v>593</v>
       </c>
       <c r="H1169" s="1" t="s">
         <v>10</v>
@@ -48746,16 +48773,16 @@
     </row>
     <row r="1170" spans="2:9" ht="30">
       <c r="B1170" s="1" t="s">
-        <v>857</v>
+        <v>1216</v>
       </c>
       <c r="C1170" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>855</v>
+        <v>1215</v>
       </c>
       <c r="E1170" s="1" t="s">
-        <v>856</v>
+        <v>9</v>
       </c>
       <c r="F1170" s="1" t="s">
         <v>10</v>
@@ -48772,16 +48799,16 @@
     </row>
     <row r="1171" spans="2:9">
       <c r="B1171" s="1" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="C1171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="E1171" s="1" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="F1171" s="1" t="s">
         <v>10</v>
@@ -48798,22 +48825,22 @@
     </row>
     <row r="1172" spans="2:9">
       <c r="B1172" s="1" t="s">
-        <v>1885</v>
+        <v>1945</v>
       </c>
       <c r="C1172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>1881</v>
+        <v>1943</v>
       </c>
       <c r="E1172" s="1" t="s">
-        <v>1882</v>
+        <v>158</v>
       </c>
       <c r="F1172" s="1" t="s">
-        <v>1883</v>
+        <v>1944</v>
       </c>
       <c r="G1172" s="1" t="s">
-        <v>1884</v>
+        <v>60</v>
       </c>
       <c r="H1172" s="1" t="s">
         <v>10</v>
@@ -48824,42 +48851,39 @@
     </row>
     <row r="1173" spans="2:9">
       <c r="B1173" s="1" t="s">
-        <v>3505</v>
+        <v>194</v>
       </c>
       <c r="C1173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3500</v>
-      </c>
-      <c r="E1173" s="1" t="s">
-        <v>3501</v>
+        <v>191</v>
       </c>
       <c r="F1173" s="1" t="s">
-        <v>3502</v>
+        <v>192</v>
       </c>
       <c r="G1173" s="1" t="s">
-        <v>3503</v>
+        <v>193</v>
       </c>
       <c r="H1173" s="1" t="s">
-        <v>3504</v>
+        <v>10</v>
       </c>
       <c r="I1173" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1174" spans="2:9">
       <c r="B1174" s="1" t="s">
-        <v>4317</v>
+        <v>3126</v>
       </c>
       <c r="C1174" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>4315</v>
+        <v>3124</v>
       </c>
       <c r="E1174" s="1" t="s">
-        <v>4316</v>
+        <v>3125</v>
       </c>
       <c r="F1174" s="1" t="s">
         <v>10</v>
@@ -48876,94 +48900,94 @@
     </row>
     <row r="1175" spans="2:9" ht="30">
       <c r="B1175" s="1" t="s">
-        <v>2314</v>
+        <v>757</v>
       </c>
       <c r="C1175" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>2312</v>
+        <v>752</v>
       </c>
       <c r="E1175" s="1" t="s">
-        <v>2313</v>
+        <v>753</v>
       </c>
       <c r="F1175" s="1" t="s">
-        <v>10</v>
+        <v>754</v>
       </c>
       <c r="G1175" s="1" t="s">
-        <v>10</v>
+        <v>755</v>
       </c>
       <c r="H1175" s="1" t="s">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="I1175" s="1" t="s">
-        <v>10</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1176" spans="2:9" ht="30">
       <c r="B1176" s="1" t="s">
-        <v>2314</v>
+        <v>2243</v>
       </c>
       <c r="C1176" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>10</v>
+        <v>2242</v>
       </c>
       <c r="E1176" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1176" s="1" t="s">
-        <v>4833</v>
+        <v>10</v>
       </c>
       <c r="G1176" s="1" t="s">
-        <v>1187</v>
+        <v>10</v>
       </c>
       <c r="H1176" s="1" t="s">
-        <v>4834</v>
+        <v>10</v>
       </c>
       <c r="I1176" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1177" spans="2:9">
       <c r="B1177" s="1" t="s">
-        <v>871</v>
+        <v>3898</v>
       </c>
       <c r="C1177" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>867</v>
+        <v>3897</v>
       </c>
       <c r="E1177" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1177" s="1" t="s">
-        <v>868</v>
+        <v>10</v>
       </c>
       <c r="G1177" s="1" t="s">
-        <v>869</v>
+        <v>10</v>
       </c>
       <c r="H1177" s="1" t="s">
-        <v>870</v>
+        <v>10</v>
       </c>
       <c r="I1177" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1178" spans="2:9">
       <c r="B1178" s="1" t="s">
-        <v>2528</v>
+        <v>2723</v>
       </c>
       <c r="C1178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>2526</v>
+        <v>2722</v>
       </c>
       <c r="E1178" s="1" t="s">
-        <v>2527</v>
+        <v>344</v>
       </c>
       <c r="F1178" s="1" t="s">
         <v>10</v>
@@ -48980,94 +49004,94 @@
     </row>
     <row r="1179" spans="2:9">
       <c r="B1179" s="1" t="s">
-        <v>654</v>
+        <v>2624</v>
       </c>
       <c r="C1179" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>652</v>
+        <v>2619</v>
       </c>
       <c r="E1179" s="1" t="s">
-        <v>453</v>
+        <v>2620</v>
       </c>
       <c r="F1179" s="1" t="s">
-        <v>10</v>
+        <v>2621</v>
       </c>
       <c r="G1179" s="1" t="s">
-        <v>10</v>
+        <v>2620</v>
       </c>
       <c r="H1179" s="1" t="s">
-        <v>653</v>
+        <v>2622</v>
       </c>
       <c r="I1179" s="1" t="s">
-        <v>12</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1180" spans="2:9">
       <c r="B1180" s="1" t="s">
-        <v>1748</v>
+        <v>1164</v>
       </c>
       <c r="C1180" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>1746</v>
+        <v>1160</v>
       </c>
       <c r="E1180" s="1" t="s">
-        <v>1747</v>
+        <v>9</v>
       </c>
       <c r="F1180" s="1" t="s">
-        <v>10</v>
+        <v>1161</v>
       </c>
       <c r="G1180" s="1" t="s">
-        <v>10</v>
+        <v>1162</v>
       </c>
       <c r="H1180" s="1" t="s">
-        <v>10</v>
+        <v>1163</v>
       </c>
       <c r="I1180" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1181" spans="2:9" ht="30">
       <c r="B1181" s="1" t="s">
-        <v>62</v>
+        <v>1607</v>
       </c>
       <c r="C1181" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>57</v>
+        <v>1601</v>
       </c>
       <c r="E1181" s="1" t="s">
-        <v>58</v>
+        <v>1602</v>
       </c>
       <c r="F1181" s="1" t="s">
-        <v>59</v>
+        <v>1603</v>
       </c>
       <c r="G1181" s="1" t="s">
-        <v>60</v>
+        <v>1604</v>
       </c>
       <c r="H1181" s="1" t="s">
-        <v>61</v>
+        <v>1605</v>
       </c>
       <c r="I1181" s="1" t="s">
-        <v>12</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1182" spans="2:9">
       <c r="B1182" s="1" t="s">
-        <v>2771</v>
+        <v>4254</v>
       </c>
       <c r="C1182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>2769</v>
+        <v>4253</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>2770</v>
+        <v>1186</v>
       </c>
       <c r="F1182" s="1" t="s">
         <v>10</v>
@@ -49084,74 +49108,74 @@
     </row>
     <row r="1183" spans="2:9">
       <c r="B1183" s="1" t="s">
-        <v>1097</v>
+        <v>645</v>
       </c>
       <c r="C1183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>1093</v>
+        <v>644</v>
       </c>
       <c r="E1183" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1183" s="1" t="s">
-        <v>1094</v>
+        <v>10</v>
       </c>
       <c r="G1183" s="1" t="s">
-        <v>1095</v>
+        <v>10</v>
       </c>
       <c r="H1183" s="1" t="s">
-        <v>1096</v>
+        <v>10</v>
       </c>
       <c r="I1183" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1184" spans="2:9">
       <c r="B1184" s="1" t="s">
-        <v>159</v>
+        <v>4654</v>
       </c>
       <c r="C1184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="E1184" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F1184" s="1" t="s">
-        <v>10</v>
+        <v>3791</v>
       </c>
       <c r="G1184" s="1" t="s">
-        <v>10</v>
+        <v>4652</v>
       </c>
       <c r="H1184" s="1" t="s">
-        <v>10</v>
+        <v>4653</v>
       </c>
       <c r="I1184" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1185" spans="2:9">
       <c r="B1185" s="1" t="s">
-        <v>4391</v>
+        <v>2330</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>12</v>
+        <v>2331</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>10</v>
+        <v>2329</v>
       </c>
       <c r="E1185" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1185" s="1" t="s">
-        <v>4389</v>
+        <v>10</v>
       </c>
       <c r="G1185" s="1" t="s">
-        <v>4390</v>
+        <v>10</v>
       </c>
       <c r="H1185" s="1" t="s">
         <v>10</v>
@@ -49162,16 +49186,16 @@
     </row>
     <row r="1186" spans="2:9">
       <c r="B1186" s="1" t="s">
-        <v>1423</v>
+        <v>2463</v>
       </c>
       <c r="C1186" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>1421</v>
+        <v>352</v>
       </c>
       <c r="E1186" s="1" t="s">
-        <v>1422</v>
+        <v>2462</v>
       </c>
       <c r="F1186" s="1" t="s">
         <v>10</v>
@@ -49188,16 +49212,16 @@
     </row>
     <row r="1187" spans="2:9">
       <c r="B1187" s="1" t="s">
-        <v>3201</v>
+        <v>857</v>
       </c>
       <c r="C1187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3199</v>
+        <v>855</v>
       </c>
       <c r="E1187" s="1" t="s">
-        <v>3200</v>
+        <v>856</v>
       </c>
       <c r="F1187" s="1" t="s">
         <v>10</v>
@@ -49214,22 +49238,22 @@
     </row>
     <row r="1188" spans="2:9" ht="45">
       <c r="B1188" s="1" t="s">
-        <v>2867</v>
+        <v>214</v>
       </c>
       <c r="C1188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>2865</v>
+        <v>212</v>
       </c>
       <c r="E1188" s="1" t="s">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="F1188" s="1" t="s">
-        <v>2866</v>
+        <v>10</v>
       </c>
       <c r="G1188" s="1" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="H1188" s="1" t="s">
         <v>10</v>
@@ -49240,22 +49264,22 @@
     </row>
     <row r="1189" spans="2:9">
       <c r="B1189" s="1" t="s">
-        <v>4657</v>
+        <v>1885</v>
       </c>
       <c r="C1189" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>10</v>
+        <v>1881</v>
       </c>
       <c r="E1189" s="1" t="s">
-        <v>10</v>
+        <v>1882</v>
       </c>
       <c r="F1189" s="1" t="s">
-        <v>4655</v>
+        <v>1883</v>
       </c>
       <c r="G1189" s="1" t="s">
-        <v>4656</v>
+        <v>1884</v>
       </c>
       <c r="H1189" s="1" t="s">
         <v>10</v>
@@ -49266,68 +49290,68 @@
     </row>
     <row r="1190" spans="2:9">
       <c r="B1190" s="1" t="s">
-        <v>151</v>
+        <v>3505</v>
       </c>
       <c r="C1190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>149</v>
+        <v>3500</v>
       </c>
       <c r="E1190" s="1" t="s">
-        <v>150</v>
+        <v>3501</v>
       </c>
       <c r="F1190" s="1" t="s">
-        <v>10</v>
+        <v>3502</v>
       </c>
       <c r="G1190" s="1" t="s">
-        <v>10</v>
+        <v>3503</v>
       </c>
       <c r="H1190" s="1" t="s">
-        <v>10</v>
+        <v>3504</v>
       </c>
       <c r="I1190" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1191" spans="2:9">
       <c r="B1191" s="1" t="s">
-        <v>4850</v>
+        <v>3006</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>12</v>
+        <v>3007</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>10</v>
+        <v>3001</v>
       </c>
       <c r="E1191" s="1" t="s">
-        <v>10</v>
+        <v>3002</v>
       </c>
       <c r="F1191" s="1" t="s">
-        <v>4848</v>
+        <v>3001</v>
       </c>
       <c r="G1191" s="1" t="s">
-        <v>4849</v>
+        <v>3003</v>
       </c>
       <c r="H1191" s="1" t="s">
-        <v>10</v>
+        <v>3004</v>
       </c>
       <c r="I1191" s="1" t="s">
-        <v>10</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1192" spans="2:9">
       <c r="B1192" s="1" t="s">
-        <v>2893</v>
+        <v>4317</v>
       </c>
       <c r="C1192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>2892</v>
+        <v>4315</v>
       </c>
       <c r="E1192" s="1" t="s">
-        <v>9</v>
+        <v>4316</v>
       </c>
       <c r="F1192" s="1" t="s">
         <v>10</v>
@@ -49344,16 +49368,16 @@
     </row>
     <row r="1193" spans="2:9">
       <c r="B1193" s="1" t="s">
-        <v>2003</v>
+        <v>2314</v>
       </c>
       <c r="C1193" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>2002</v>
+        <v>2312</v>
       </c>
       <c r="E1193" s="1" t="s">
-        <v>9</v>
+        <v>2313</v>
       </c>
       <c r="F1193" s="1" t="s">
         <v>10</v>
@@ -49370,7 +49394,7 @@
     </row>
     <row r="1194" spans="2:9">
       <c r="B1194" s="1" t="s">
-        <v>2003</v>
+        <v>2314</v>
       </c>
       <c r="C1194" s="1" t="s">
         <v>12</v>
@@ -49382,88 +49406,91 @@
         <v>10</v>
       </c>
       <c r="F1194" s="1" t="s">
-        <v>4541</v>
+        <v>4833</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>1187</v>
       </c>
       <c r="H1194" s="1" t="s">
-        <v>4541</v>
+        <v>4834</v>
       </c>
       <c r="I1194" s="1" t="s">
-        <v>4542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1195" spans="2:9" ht="30">
       <c r="B1195" s="1" t="s">
-        <v>2003</v>
+        <v>2507</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>12</v>
+        <v>2508</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>10</v>
+        <v>2502</v>
       </c>
       <c r="E1195" s="1" t="s">
-        <v>10</v>
+        <v>2503</v>
       </c>
       <c r="F1195" s="1" t="s">
-        <v>10</v>
+        <v>2504</v>
       </c>
       <c r="G1195" s="1" t="s">
-        <v>10</v>
+        <v>2505</v>
       </c>
       <c r="H1195" s="1" t="s">
-        <v>4969</v>
+        <v>2506</v>
       </c>
       <c r="I1195" s="1" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1196" spans="2:9">
       <c r="B1196" s="1" t="s">
-        <v>943</v>
+        <v>4435</v>
       </c>
       <c r="C1196" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1196" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1196" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="I1196" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1196" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="E1196" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1196" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1197" spans="2:9">
       <c r="B1197" s="1" t="s">
-        <v>4213</v>
+        <v>871</v>
       </c>
       <c r="C1197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>4209</v>
+        <v>867</v>
       </c>
       <c r="E1197" s="1" t="s">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="F1197" s="1" t="s">
-        <v>4210</v>
+        <v>868</v>
       </c>
       <c r="G1197" s="1" t="s">
-        <v>4211</v>
+        <v>869</v>
       </c>
       <c r="H1197" s="1" t="s">
-        <v>4212</v>
+        <v>870</v>
       </c>
       <c r="I1197" s="1" t="s">
         <v>12</v>
@@ -49471,16 +49498,16 @@
     </row>
     <row r="1198" spans="2:9">
       <c r="B1198" s="1" t="s">
-        <v>950</v>
+        <v>2528</v>
       </c>
       <c r="C1198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>949</v>
+        <v>2526</v>
       </c>
       <c r="E1198" s="1" t="s">
-        <v>161</v>
+        <v>2527</v>
       </c>
       <c r="F1198" s="1" t="s">
         <v>10</v>
@@ -49497,16 +49524,16 @@
     </row>
     <row r="1199" spans="2:9">
       <c r="B1199" s="1" t="s">
-        <v>2355</v>
+        <v>654</v>
       </c>
       <c r="C1199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>2354</v>
+        <v>652</v>
       </c>
       <c r="E1199" s="1" t="s">
-        <v>9</v>
+        <v>453</v>
       </c>
       <c r="F1199" s="1" t="s">
         <v>10</v>
@@ -49515,50 +49542,50 @@
         <v>10</v>
       </c>
       <c r="H1199" s="1" t="s">
-        <v>10</v>
+        <v>653</v>
       </c>
       <c r="I1199" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1200" spans="2:9">
       <c r="B1200" s="1" t="s">
-        <v>4726</v>
+        <v>2305</v>
       </c>
       <c r="C1200" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E1200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1200" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="I1200" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1200" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1200" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1200" s="1" t="s">
-        <v>4724</v>
-      </c>
-      <c r="G1200" s="1" t="s">
-        <v>4725</v>
-      </c>
-      <c r="H1200" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1200" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1201" spans="2:9" ht="30">
       <c r="B1201" s="1" t="s">
-        <v>264</v>
+        <v>1748</v>
       </c>
       <c r="C1201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>263</v>
+        <v>1746</v>
       </c>
       <c r="E1201" s="1" t="s">
-        <v>9</v>
+        <v>1747</v>
       </c>
       <c r="F1201" s="1" t="s">
         <v>10</v>
@@ -49575,77 +49602,77 @@
     </row>
     <row r="1202" spans="2:9" ht="30">
       <c r="B1202" s="1" t="s">
-        <v>1647</v>
+        <v>62</v>
       </c>
       <c r="C1202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>1646</v>
+        <v>57</v>
       </c>
       <c r="E1202" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F1202" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G1202" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H1202" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I1202" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1203" spans="2:9">
       <c r="B1203" s="1" t="s">
-        <v>4502</v>
+        <v>2771</v>
       </c>
       <c r="C1203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>10</v>
+        <v>2769</v>
       </c>
       <c r="E1203" s="1" t="s">
-        <v>10</v>
+        <v>2770</v>
       </c>
       <c r="F1203" s="1" t="s">
-        <v>4499</v>
+        <v>10</v>
       </c>
       <c r="G1203" s="1" t="s">
-        <v>4500</v>
+        <v>10</v>
       </c>
       <c r="H1203" s="1" t="s">
-        <v>4501</v>
+        <v>10</v>
       </c>
       <c r="I1203" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1204" spans="2:9">
       <c r="B1204" s="1" t="s">
-        <v>4092</v>
+        <v>1097</v>
       </c>
       <c r="C1204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>4088</v>
+        <v>1093</v>
       </c>
       <c r="E1204" s="1" t="s">
-        <v>2800</v>
+        <v>9</v>
       </c>
       <c r="F1204" s="1" t="s">
-        <v>4089</v>
+        <v>1094</v>
       </c>
       <c r="G1204" s="1" t="s">
-        <v>4090</v>
+        <v>1095</v>
       </c>
       <c r="H1204" s="1" t="s">
-        <v>4091</v>
+        <v>1096</v>
       </c>
       <c r="I1204" s="1" t="s">
         <v>12</v>
@@ -49653,16 +49680,16 @@
     </row>
     <row r="1205" spans="2:9">
       <c r="B1205" s="1" t="s">
-        <v>1511</v>
+        <v>159</v>
       </c>
       <c r="C1205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>1510</v>
+        <v>157</v>
       </c>
       <c r="E1205" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F1205" s="1" t="s">
         <v>10</v>
@@ -49679,65 +49706,68 @@
     </row>
     <row r="1206" spans="2:9">
       <c r="B1206" s="1" t="s">
-        <v>2161</v>
+        <v>4391</v>
       </c>
       <c r="C1206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>2157</v>
+        <v>10</v>
       </c>
       <c r="E1206" s="1" t="s">
-        <v>2158</v>
+        <v>10</v>
       </c>
       <c r="F1206" s="1" t="s">
-        <v>2159</v>
+        <v>4389</v>
       </c>
       <c r="G1206" s="1" t="s">
-        <v>899</v>
+        <v>4390</v>
       </c>
       <c r="H1206" s="1" t="s">
-        <v>2160</v>
+        <v>10</v>
       </c>
       <c r="I1206" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1207" spans="2:9">
       <c r="B1207" s="1" t="s">
-        <v>4200</v>
+        <v>1423</v>
       </c>
       <c r="C1207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>4195</v>
+        <v>1421</v>
       </c>
       <c r="E1207" s="1" t="s">
-        <v>4196</v>
+        <v>1422</v>
       </c>
       <c r="F1207" s="1" t="s">
-        <v>4197</v>
+        <v>10</v>
+      </c>
+      <c r="G1207" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H1207" s="1" t="s">
-        <v>4198</v>
+        <v>10</v>
       </c>
       <c r="I1207" s="1" t="s">
-        <v>4199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1208" spans="2:9">
       <c r="B1208" s="1" t="s">
-        <v>370</v>
+        <v>3201</v>
       </c>
       <c r="C1208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>368</v>
+        <v>3199</v>
       </c>
       <c r="E1208" s="1" t="s">
-        <v>369</v>
+        <v>3200</v>
       </c>
       <c r="F1208" s="1" t="s">
         <v>10</v>
@@ -49754,22 +49784,22 @@
     </row>
     <row r="1209" spans="2:9">
       <c r="B1209" s="1" t="s">
-        <v>330</v>
+        <v>2867</v>
       </c>
       <c r="C1209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>328</v>
+        <v>2865</v>
       </c>
       <c r="E1209" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F1209" s="1" t="s">
-        <v>10</v>
+        <v>2866</v>
       </c>
       <c r="G1209" s="1" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="H1209" s="1" t="s">
         <v>10</v>
@@ -49780,22 +49810,22 @@
     </row>
     <row r="1210" spans="2:9">
       <c r="B1210" s="1" t="s">
-        <v>515</v>
+        <v>4657</v>
       </c>
       <c r="C1210" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>513</v>
+        <v>10</v>
       </c>
       <c r="E1210" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1210" s="1" t="s">
-        <v>514</v>
+        <v>4655</v>
       </c>
       <c r="G1210" s="1" t="s">
-        <v>336</v>
+        <v>4656</v>
       </c>
       <c r="H1210" s="1" t="s">
         <v>10</v>
@@ -49806,68 +49836,65 @@
     </row>
     <row r="1211" spans="2:9">
       <c r="B1211" s="1" t="s">
-        <v>3499</v>
+        <v>557</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3496</v>
+        <v>553</v>
       </c>
       <c r="E1211" s="1" t="s">
-        <v>3497</v>
+        <v>554</v>
       </c>
       <c r="F1211" s="1" t="s">
-        <v>3496</v>
+        <v>10</v>
       </c>
       <c r="G1211" s="1" t="s">
-        <v>845</v>
+        <v>10</v>
       </c>
       <c r="H1211" s="1" t="s">
-        <v>3498</v>
+        <v>555</v>
       </c>
       <c r="I1211" s="1" t="s">
-        <v>12</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1212" spans="2:9">
       <c r="B1212" s="1" t="s">
-        <v>289</v>
+        <v>557</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="E1212" s="1" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="F1212" s="1" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="G1212" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H1212" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1212" s="1" t="s">
-        <v>10</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1213" spans="2:9">
       <c r="B1213" s="1" t="s">
-        <v>1240</v>
+        <v>151</v>
       </c>
       <c r="C1213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>1238</v>
+        <v>149</v>
       </c>
       <c r="E1213" s="1" t="s">
-        <v>1239</v>
+        <v>150</v>
       </c>
       <c r="F1213" s="1" t="s">
         <v>10</v>
@@ -49884,42 +49911,42 @@
     </row>
     <row r="1214" spans="2:9">
       <c r="B1214" s="1" t="s">
-        <v>964</v>
+        <v>4850</v>
       </c>
       <c r="C1214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>961</v>
+        <v>10</v>
       </c>
       <c r="E1214" s="1" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="F1214" s="1" t="s">
-        <v>962</v>
+        <v>4848</v>
       </c>
       <c r="G1214" s="1" t="s">
-        <v>60</v>
+        <v>4849</v>
       </c>
       <c r="H1214" s="1" t="s">
-        <v>963</v>
+        <v>10</v>
       </c>
       <c r="I1214" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1215" spans="2:9">
       <c r="B1215" s="1" t="s">
-        <v>2834</v>
+        <v>2893</v>
       </c>
       <c r="C1215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>2832</v>
+        <v>2892</v>
       </c>
       <c r="E1215" s="1" t="s">
-        <v>2833</v>
+        <v>9</v>
       </c>
       <c r="F1215" s="1" t="s">
         <v>10</v>
@@ -49936,16 +49963,16 @@
     </row>
     <row r="1216" spans="2:9">
       <c r="B1216" s="1" t="s">
-        <v>3544</v>
+        <v>2003</v>
       </c>
       <c r="C1216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3543</v>
+        <v>2002</v>
       </c>
       <c r="E1216" s="1" t="s">
-        <v>1465</v>
+        <v>9</v>
       </c>
       <c r="F1216" s="1" t="s">
         <v>10</v>
@@ -49962,7 +49989,7 @@
     </row>
     <row r="1217" spans="2:9">
       <c r="B1217" s="1" t="s">
-        <v>4891</v>
+        <v>2003</v>
       </c>
       <c r="C1217" s="1" t="s">
         <v>12</v>
@@ -49974,140 +50001,137 @@
         <v>10</v>
       </c>
       <c r="F1217" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1217" s="1" t="s">
-        <v>10</v>
+        <v>4541</v>
       </c>
       <c r="H1217" s="1" t="s">
-        <v>4890</v>
+        <v>4541</v>
       </c>
       <c r="I1217" s="1" t="s">
-        <v>12</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1218" spans="2:9" ht="30">
       <c r="B1218" s="1" t="s">
-        <v>3070</v>
+        <v>2003</v>
       </c>
       <c r="C1218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3066</v>
+        <v>10</v>
       </c>
       <c r="E1218" s="1" t="s">
-        <v>3067</v>
+        <v>10</v>
       </c>
       <c r="F1218" s="1" t="s">
-        <v>3068</v>
+        <v>10</v>
       </c>
       <c r="G1218" s="1" t="s">
-        <v>3069</v>
+        <v>10</v>
       </c>
       <c r="H1218" s="1" t="s">
-        <v>10</v>
+        <v>4969</v>
       </c>
       <c r="I1218" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1219" spans="2:9">
       <c r="B1219" s="1" t="s">
-        <v>937</v>
+        <v>3596</v>
       </c>
       <c r="C1219" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E1219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="G1219" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="H1219" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="I1219" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1219" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E1219" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="F1219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1219" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="I1219" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="1220" spans="2:9" ht="30">
       <c r="B1220" s="1" t="s">
-        <v>2496</v>
+        <v>943</v>
       </c>
       <c r="C1220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>2492</v>
+        <v>942</v>
       </c>
       <c r="E1220" s="1" t="s">
-        <v>2493</v>
+        <v>161</v>
       </c>
       <c r="F1220" s="1" t="s">
-        <v>2492</v>
+        <v>10</v>
       </c>
       <c r="G1220" s="1" t="s">
-        <v>2494</v>
+        <v>10</v>
       </c>
       <c r="H1220" s="1" t="s">
-        <v>2495</v>
+        <v>10</v>
       </c>
       <c r="I1220" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1221" spans="2:9">
       <c r="B1221" s="1" t="s">
-        <v>3088</v>
+        <v>4213</v>
       </c>
       <c r="C1221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3087</v>
+        <v>4209</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="F1221" s="1" t="s">
-        <v>10</v>
+        <v>4210</v>
       </c>
       <c r="G1221" s="1" t="s">
-        <v>10</v>
+        <v>4211</v>
       </c>
       <c r="H1221" s="1" t="s">
-        <v>10</v>
+        <v>4212</v>
       </c>
       <c r="I1221" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1222" spans="2:9">
       <c r="B1222" s="1" t="s">
-        <v>4331</v>
+        <v>950</v>
       </c>
       <c r="C1222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>10</v>
+        <v>949</v>
       </c>
       <c r="E1222" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="F1222" s="1" t="s">
-        <v>4329</v>
+        <v>10</v>
       </c>
       <c r="G1222" s="1" t="s">
-        <v>4330</v>
+        <v>10</v>
       </c>
       <c r="H1222" s="1" t="s">
         <v>10</v>
@@ -50118,22 +50142,22 @@
     </row>
     <row r="1223" spans="2:9" ht="30">
       <c r="B1223" s="1" t="s">
-        <v>4719</v>
+        <v>2355</v>
       </c>
       <c r="C1223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>10</v>
+        <v>2354</v>
       </c>
       <c r="E1223" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1223" s="1" t="s">
-        <v>4718</v>
+        <v>10</v>
       </c>
       <c r="G1223" s="1" t="s">
-        <v>1304</v>
+        <v>10</v>
       </c>
       <c r="H1223" s="1" t="s">
         <v>10</v>
@@ -50144,22 +50168,22 @@
     </row>
     <row r="1224" spans="2:9" ht="30">
       <c r="B1224" s="1" t="s">
-        <v>3182</v>
+        <v>4726</v>
       </c>
       <c r="C1224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3179</v>
+        <v>10</v>
       </c>
       <c r="E1224" s="1" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="F1224" s="1" t="s">
-        <v>3180</v>
+        <v>4724</v>
       </c>
       <c r="G1224" s="1" t="s">
-        <v>3181</v>
+        <v>4725</v>
       </c>
       <c r="H1224" s="1" t="s">
         <v>10</v>
@@ -50170,45 +50194,48 @@
     </row>
     <row r="1225" spans="2:9">
       <c r="B1225" s="1" t="s">
-        <v>4666</v>
+        <v>264</v>
       </c>
       <c r="C1225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="E1225" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1225" s="1" t="s">
-        <v>4664</v>
+        <v>10</v>
+      </c>
+      <c r="G1225" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H1225" s="1" t="s">
-        <v>4664</v>
+        <v>10</v>
       </c>
       <c r="I1225" s="1" t="s">
-        <v>4665</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1226" spans="2:9">
       <c r="B1226" s="1" t="s">
-        <v>3036</v>
+        <v>1647</v>
       </c>
       <c r="C1226" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3034</v>
+        <v>1646</v>
       </c>
       <c r="E1226" s="1" t="s">
-        <v>3035</v>
+        <v>9</v>
       </c>
       <c r="F1226" s="1" t="s">
-        <v>2162</v>
+        <v>10</v>
       </c>
       <c r="G1226" s="1" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="H1226" s="1" t="s">
         <v>10</v>
@@ -50219,7 +50246,7 @@
     </row>
     <row r="1227" spans="2:9">
       <c r="B1227" s="1" t="s">
-        <v>3036</v>
+        <v>4502</v>
       </c>
       <c r="C1227" s="1" t="s">
         <v>12</v>
@@ -50231,53 +50258,56 @@
         <v>10</v>
       </c>
       <c r="F1227" s="1" t="s">
-        <v>4467</v>
+        <v>4499</v>
       </c>
       <c r="G1227" s="1" t="s">
-        <v>4468</v>
+        <v>4500</v>
       </c>
       <c r="H1227" s="1" t="s">
-        <v>4469</v>
+        <v>4501</v>
       </c>
       <c r="I1227" s="1" t="s">
-        <v>4470</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1228" spans="2:9" ht="30">
       <c r="B1228" s="1" t="s">
-        <v>1257</v>
+        <v>4092</v>
       </c>
       <c r="C1228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>1253</v>
+        <v>4088</v>
       </c>
       <c r="E1228" s="1" t="s">
-        <v>1254</v>
+        <v>2800</v>
       </c>
       <c r="F1228" s="1" t="s">
-        <v>1253</v>
+        <v>4089</v>
+      </c>
+      <c r="G1228" s="1" t="s">
+        <v>4090</v>
       </c>
       <c r="H1228" s="1" t="s">
-        <v>1255</v>
+        <v>4091</v>
       </c>
       <c r="I1228" s="1" t="s">
-        <v>1256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1229" spans="2:9">
       <c r="B1229" s="1" t="s">
-        <v>3491</v>
+        <v>1511</v>
       </c>
       <c r="C1229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3489</v>
+        <v>1510</v>
       </c>
       <c r="E1229" s="1" t="s">
-        <v>3490</v>
+        <v>9</v>
       </c>
       <c r="F1229" s="1" t="s">
         <v>10</v>
@@ -50294,68 +50324,65 @@
     </row>
     <row r="1230" spans="2:9">
       <c r="B1230" s="1" t="s">
-        <v>3873</v>
+        <v>2161</v>
       </c>
       <c r="C1230" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3872</v>
+        <v>2157</v>
       </c>
       <c r="E1230" s="1" t="s">
-        <v>9</v>
+        <v>2158</v>
       </c>
       <c r="F1230" s="1" t="s">
-        <v>10</v>
+        <v>2159</v>
       </c>
       <c r="G1230" s="1" t="s">
-        <v>10</v>
+        <v>899</v>
       </c>
       <c r="H1230" s="1" t="s">
-        <v>10</v>
+        <v>2160</v>
       </c>
       <c r="I1230" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1231" spans="2:9">
       <c r="B1231" s="1" t="s">
-        <v>2939</v>
+        <v>4200</v>
       </c>
       <c r="C1231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>2935</v>
+        <v>4195</v>
       </c>
       <c r="E1231" s="1" t="s">
-        <v>9</v>
+        <v>4196</v>
       </c>
       <c r="F1231" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="G1231" s="1" t="s">
-        <v>2937</v>
+        <v>4197</v>
       </c>
       <c r="H1231" s="1" t="s">
-        <v>2938</v>
+        <v>4198</v>
       </c>
       <c r="I1231" s="1" t="s">
-        <v>12</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1232" spans="2:9">
       <c r="B1232" s="1" t="s">
-        <v>4087</v>
+        <v>370</v>
       </c>
       <c r="C1232" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>4085</v>
+        <v>368</v>
       </c>
       <c r="E1232" s="1" t="s">
-        <v>4086</v>
+        <v>369</v>
       </c>
       <c r="F1232" s="1" t="s">
         <v>10</v>
@@ -50370,18 +50397,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1233" spans="1:9">
+    <row r="1233" spans="2:9">
       <c r="B1233" s="1" t="s">
-        <v>960</v>
+        <v>330</v>
       </c>
       <c r="C1233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>959</v>
+        <v>328</v>
       </c>
       <c r="E1233" s="1" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="F1233" s="1" t="s">
         <v>10</v>
@@ -50396,50 +50423,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1234" spans="1:9" ht="30">
+    <row r="1234" spans="2:9" ht="30">
       <c r="B1234" s="1" t="s">
-        <v>525</v>
+        <v>2697</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>12</v>
+        <v>746</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>522</v>
+        <v>2695</v>
       </c>
       <c r="E1234" s="1" t="s">
-        <v>523</v>
+        <v>1055</v>
       </c>
       <c r="F1234" s="1" t="s">
-        <v>10</v>
+        <v>2696</v>
       </c>
       <c r="G1234" s="1" t="s">
-        <v>10</v>
+        <v>1055</v>
       </c>
       <c r="H1234" s="1" t="s">
-        <v>524</v>
+        <v>10</v>
       </c>
       <c r="I1234" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:9">
       <c r="B1235" s="1" t="s">
-        <v>2263</v>
+        <v>515</v>
       </c>
       <c r="C1235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>2261</v>
+        <v>513</v>
       </c>
       <c r="E1235" s="1" t="s">
-        <v>2262</v>
+        <v>9</v>
       </c>
       <c r="F1235" s="1" t="s">
-        <v>10</v>
+        <v>514</v>
       </c>
       <c r="G1235" s="1" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="H1235" s="1" t="s">
         <v>10</v>
@@ -50448,50 +50475,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1236" spans="1:9">
+    <row r="1236" spans="2:9">
       <c r="B1236" s="1" t="s">
-        <v>3792</v>
+        <v>3499</v>
       </c>
       <c r="C1236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3791</v>
+        <v>3496</v>
       </c>
       <c r="E1236" s="1" t="s">
-        <v>2037</v>
+        <v>3497</v>
       </c>
       <c r="F1236" s="1" t="s">
-        <v>10</v>
+        <v>3496</v>
       </c>
       <c r="G1236" s="1" t="s">
-        <v>10</v>
+        <v>845</v>
       </c>
       <c r="H1236" s="1" t="s">
-        <v>10</v>
+        <v>3498</v>
       </c>
       <c r="I1236" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:9">
       <c r="B1237" s="1" t="s">
-        <v>779</v>
+        <v>289</v>
       </c>
       <c r="C1237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>777</v>
+        <v>286</v>
       </c>
       <c r="E1237" s="1" t="s">
-        <v>778</v>
+        <v>287</v>
       </c>
       <c r="F1237" s="1" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="G1237" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H1237" s="1" t="s">
         <v>10</v>
@@ -50500,108 +50527,96 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1238" spans="1:9">
-      <c r="A1238" t="s">
-        <v>5008</v>
-      </c>
+    <row r="1238" spans="2:9">
       <c r="B1238" s="1" t="s">
-        <v>4843</v>
+        <v>1240</v>
       </c>
       <c r="C1238" s="1" t="s">
-        <v>1252</v>
+        <v>12</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>10</v>
+        <v>1238</v>
       </c>
       <c r="E1238" s="1" t="s">
-        <v>10</v>
+        <v>1239</v>
       </c>
       <c r="F1238" s="1" t="s">
-        <v>4840</v>
+        <v>10</v>
       </c>
       <c r="G1238" s="1" t="s">
-        <v>4841</v>
+        <v>10</v>
       </c>
       <c r="H1238" s="1" t="s">
-        <v>4842</v>
+        <v>10</v>
       </c>
       <c r="I1238" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:9">
+      <c r="B1239" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1239" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="1239" spans="1:9">
-      <c r="A1239" t="s">
-        <v>5008</v>
-      </c>
-      <c r="B1239" s="1" t="s">
-        <v>3154</v>
-      </c>
-      <c r="C1239" s="1" t="s">
-        <v>1252</v>
-      </c>
       <c r="D1239" s="1" t="s">
-        <v>3149</v>
+        <v>961</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>3150</v>
+        <v>344</v>
       </c>
       <c r="F1239" s="1" t="s">
-        <v>3151</v>
+        <v>962</v>
       </c>
       <c r="G1239" s="1" t="s">
-        <v>3152</v>
+        <v>60</v>
       </c>
       <c r="H1239" s="1" t="s">
-        <v>3153</v>
+        <v>963</v>
       </c>
       <c r="I1239" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1240" spans="1:9">
-      <c r="A1240" t="s">
-        <v>5008</v>
-      </c>
+    <row r="1240" spans="2:9">
       <c r="B1240" s="1" t="s">
-        <v>4684</v>
+        <v>3032</v>
       </c>
       <c r="C1240" s="1" t="s">
-        <v>4685</v>
+        <v>3033</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>10</v>
+        <v>3031</v>
       </c>
       <c r="E1240" s="1" t="s">
-        <v>10</v>
+        <v>389</v>
       </c>
       <c r="F1240" s="1" t="s">
-        <v>2068</v>
+        <v>10</v>
       </c>
       <c r="G1240" s="1" t="s">
-        <v>2069</v>
+        <v>10</v>
       </c>
       <c r="H1240" s="1" t="s">
-        <v>2068</v>
+        <v>10</v>
       </c>
       <c r="I1240" s="1" t="s">
-        <v>4683</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:9" ht="30">
-      <c r="A1241" t="s">
-        <v>5008</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:9" ht="30">
       <c r="B1241" s="1" t="s">
-        <v>2017</v>
+        <v>2834</v>
       </c>
       <c r="C1241" s="1" t="s">
-        <v>2018</v>
+        <v>12</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>2015</v>
+        <v>2832</v>
       </c>
       <c r="E1241" s="1" t="s">
-        <v>2016</v>
+        <v>2833</v>
       </c>
       <c r="F1241" s="1" t="s">
         <v>10</v>
@@ -50616,44 +50631,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1242" spans="1:9">
-      <c r="A1242" t="s">
-        <v>5008</v>
-      </c>
+    <row r="1242" spans="2:9">
       <c r="B1242" s="1" t="s">
-        <v>1251</v>
+        <v>3544</v>
       </c>
       <c r="C1242" s="1" t="s">
-        <v>1252</v>
+        <v>12</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>1245</v>
+        <v>3543</v>
       </c>
       <c r="E1242" s="1" t="s">
-        <v>1246</v>
+        <v>1465</v>
       </c>
       <c r="F1242" s="1" t="s">
-        <v>1247</v>
+        <v>10</v>
       </c>
       <c r="G1242" s="1" t="s">
-        <v>1248</v>
+        <v>10</v>
       </c>
       <c r="H1242" s="1" t="s">
-        <v>1249</v>
+        <v>10</v>
       </c>
       <c r="I1242" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:9">
-      <c r="A1243" t="s">
-        <v>5008</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:9">
       <c r="B1243" s="1" t="s">
-        <v>4792</v>
+        <v>4891</v>
       </c>
       <c r="C1243" s="1" t="s">
-        <v>4793</v>
+        <v>12</v>
       </c>
       <c r="D1243" s="1" t="s">
         <v>10</v>
@@ -50662,62 +50671,56 @@
         <v>10</v>
       </c>
       <c r="F1243" s="1" t="s">
-        <v>4789</v>
+        <v>10</v>
       </c>
       <c r="G1243" s="1" t="s">
-        <v>4790</v>
+        <v>10</v>
       </c>
       <c r="H1243" s="1" t="s">
-        <v>4791</v>
+        <v>4890</v>
       </c>
       <c r="I1243" s="1" t="s">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:9">
-      <c r="A1244" t="s">
-        <v>5008</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:9">
       <c r="B1244" s="1" t="s">
-        <v>2491</v>
+        <v>3070</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>1252</v>
+        <v>12</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>364</v>
+        <v>3066</v>
       </c>
       <c r="E1244" s="1" t="s">
-        <v>2489</v>
+        <v>3067</v>
       </c>
       <c r="F1244" s="1" t="s">
-        <v>10</v>
+        <v>3068</v>
       </c>
       <c r="G1244" s="1" t="s">
-        <v>10</v>
+        <v>3069</v>
       </c>
       <c r="H1244" s="1" t="s">
-        <v>2490</v>
+        <v>10</v>
       </c>
       <c r="I1244" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:9">
+      <c r="B1245" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1245" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="1245" spans="1:9">
-      <c r="A1245" t="s">
-        <v>5008</v>
-      </c>
-      <c r="B1245" s="1" t="s">
-        <v>4984</v>
-      </c>
-      <c r="C1245" s="1" t="s">
-        <v>1252</v>
-      </c>
       <c r="D1245" s="1" t="s">
-        <v>10</v>
+        <v>933</v>
       </c>
       <c r="E1245" s="1" t="s">
-        <v>10</v>
+        <v>934</v>
       </c>
       <c r="F1245" s="1" t="s">
         <v>10</v>
@@ -50726,56 +50729,56 @@
         <v>10</v>
       </c>
       <c r="H1245" s="1" t="s">
-        <v>4983</v>
+        <v>935</v>
       </c>
       <c r="I1245" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:9">
+      <c r="B1246" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C1246" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="1246" spans="1:9">
-      <c r="B1246" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C1246" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="D1246" s="1" t="s">
-        <v>742</v>
+        <v>2492</v>
       </c>
       <c r="E1246" s="1" t="s">
-        <v>743</v>
+        <v>2493</v>
       </c>
       <c r="F1246" s="1" t="s">
-        <v>10</v>
+        <v>2492</v>
       </c>
       <c r="G1246" s="1" t="s">
-        <v>10</v>
+        <v>2494</v>
       </c>
       <c r="H1246" s="1" t="s">
-        <v>744</v>
+        <v>2495</v>
       </c>
       <c r="I1246" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1247" spans="1:9">
+    <row r="1247" spans="2:9">
       <c r="B1247" s="1" t="s">
-        <v>745</v>
+        <v>3088</v>
       </c>
       <c r="C1247" s="1" t="s">
-        <v>746</v>
+        <v>12</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>10</v>
+        <v>3087</v>
       </c>
       <c r="E1247" s="1" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="F1247" s="1" t="s">
-        <v>4796</v>
+        <v>10</v>
       </c>
       <c r="G1247" s="1" t="s">
-        <v>4797</v>
+        <v>10</v>
       </c>
       <c r="H1247" s="1" t="s">
         <v>10</v>
@@ -50784,24 +50787,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1248" spans="1:9">
+    <row r="1248" spans="2:9">
       <c r="B1248" s="1" t="s">
-        <v>2038</v>
+        <v>4331</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>2039</v>
+        <v>12</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>2036</v>
+        <v>10</v>
       </c>
       <c r="E1248" s="1" t="s">
-        <v>2037</v>
+        <v>10</v>
       </c>
       <c r="F1248" s="1" t="s">
-        <v>10</v>
+        <v>4329</v>
       </c>
       <c r="G1248" s="1" t="s">
-        <v>10</v>
+        <v>4330</v>
       </c>
       <c r="H1248" s="1" t="s">
         <v>10</v>
@@ -50812,48 +50815,48 @@
     </row>
     <row r="1249" spans="2:9">
       <c r="B1249" s="1" t="s">
-        <v>475</v>
+        <v>4719</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="E1249" s="1" t="s">
-        <v>471</v>
+        <v>10</v>
       </c>
       <c r="F1249" s="1" t="s">
-        <v>472</v>
+        <v>4718</v>
       </c>
       <c r="G1249" s="1" t="s">
-        <v>473</v>
+        <v>1304</v>
       </c>
       <c r="H1249" s="1" t="s">
-        <v>472</v>
+        <v>10</v>
       </c>
       <c r="I1249" s="1" t="s">
-        <v>474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1250" spans="2:9" ht="30">
       <c r="B1250" s="1" t="s">
-        <v>3104</v>
+        <v>3182</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>3105</v>
+        <v>12</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>3101</v>
+        <v>3179</v>
       </c>
       <c r="E1250" s="1" t="s">
-        <v>3102</v>
+        <v>344</v>
       </c>
       <c r="F1250" s="1" t="s">
-        <v>3101</v>
+        <v>3180</v>
       </c>
       <c r="G1250" s="1" t="s">
-        <v>3103</v>
+        <v>3181</v>
       </c>
       <c r="H1250" s="1" t="s">
         <v>10</v>
@@ -50864,48 +50867,45 @@
     </row>
     <row r="1251" spans="2:9">
       <c r="B1251" s="1" t="s">
-        <v>3733</v>
+        <v>4666</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>3734</v>
+        <v>12</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>3728</v>
+        <v>10</v>
       </c>
       <c r="E1251" s="1" t="s">
-        <v>3729</v>
+        <v>10</v>
       </c>
       <c r="F1251" s="1" t="s">
-        <v>3730</v>
-      </c>
-      <c r="G1251" s="1" t="s">
-        <v>3731</v>
+        <v>4664</v>
       </c>
       <c r="H1251" s="1" t="s">
-        <v>3732</v>
+        <v>4664</v>
       </c>
       <c r="I1251" s="1" t="s">
-        <v>12</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="1252" spans="2:9">
       <c r="B1252" s="1" t="s">
-        <v>4650</v>
+        <v>3036</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>4651</v>
+        <v>12</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>10</v>
+        <v>3034</v>
       </c>
       <c r="E1252" s="1" t="s">
-        <v>10</v>
+        <v>3035</v>
       </c>
       <c r="F1252" s="1" t="s">
-        <v>4648</v>
+        <v>2162</v>
       </c>
       <c r="G1252" s="1" t="s">
-        <v>4649</v>
+        <v>336</v>
       </c>
       <c r="H1252" s="1" t="s">
         <v>10</v>
@@ -50916,10 +50916,10 @@
     </row>
     <row r="1253" spans="2:9">
       <c r="B1253" s="1" t="s">
-        <v>4563</v>
+        <v>3036</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>4564</v>
+        <v>12</v>
       </c>
       <c r="D1253" s="1" t="s">
         <v>10</v>
@@ -50928,143 +50928,140 @@
         <v>10</v>
       </c>
       <c r="F1253" s="1" t="s">
-        <v>4562</v>
+        <v>4467</v>
       </c>
       <c r="G1253" s="1" t="s">
-        <v>593</v>
+        <v>4468</v>
       </c>
       <c r="H1253" s="1" t="s">
-        <v>10</v>
+        <v>4469</v>
       </c>
       <c r="I1253" s="1" t="s">
-        <v>10</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1254" spans="2:9">
       <c r="B1254" s="1" t="s">
-        <v>2330</v>
+        <v>1257</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>2331</v>
+        <v>12</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>2329</v>
+        <v>1253</v>
       </c>
       <c r="E1254" s="1" t="s">
-        <v>9</v>
+        <v>1254</v>
       </c>
       <c r="F1254" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1254" s="1" t="s">
-        <v>10</v>
+        <v>1253</v>
       </c>
       <c r="H1254" s="1" t="s">
-        <v>10</v>
+        <v>1255</v>
       </c>
       <c r="I1254" s="1" t="s">
-        <v>10</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1255" spans="2:9">
       <c r="B1255" s="1" t="s">
-        <v>3006</v>
+        <v>1715</v>
       </c>
       <c r="C1255" s="1" t="s">
-        <v>3007</v>
+        <v>1716</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>3001</v>
+        <v>1712</v>
       </c>
       <c r="E1255" s="1" t="s">
-        <v>3002</v>
+        <v>1713</v>
       </c>
       <c r="F1255" s="1" t="s">
-        <v>3001</v>
+        <v>1712</v>
       </c>
       <c r="G1255" s="1" t="s">
-        <v>3003</v>
+        <v>1713</v>
       </c>
       <c r="H1255" s="1" t="s">
-        <v>3004</v>
+        <v>1714</v>
       </c>
       <c r="I1255" s="1" t="s">
-        <v>3005</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1256" spans="2:9">
       <c r="B1256" s="1" t="s">
-        <v>2507</v>
+        <v>3491</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>2508</v>
+        <v>12</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>2502</v>
+        <v>3489</v>
       </c>
       <c r="E1256" s="1" t="s">
-        <v>2503</v>
+        <v>3490</v>
       </c>
       <c r="F1256" s="1" t="s">
-        <v>2504</v>
+        <v>10</v>
       </c>
       <c r="G1256" s="1" t="s">
-        <v>2505</v>
+        <v>10</v>
       </c>
       <c r="H1256" s="1" t="s">
-        <v>2506</v>
+        <v>10</v>
       </c>
       <c r="I1256" s="1" t="s">
-        <v>335</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1257" spans="2:9">
       <c r="B1257" s="1" t="s">
-        <v>4435</v>
+        <v>3873</v>
       </c>
       <c r="C1257" s="1" t="s">
-        <v>4436</v>
+        <v>12</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>10</v>
+        <v>3872</v>
       </c>
       <c r="E1257" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1257" s="1" t="s">
-        <v>4433</v>
+        <v>10</v>
       </c>
       <c r="G1257" s="1" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="H1257" s="1" t="s">
-        <v>4434</v>
+        <v>10</v>
       </c>
       <c r="I1257" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1258" spans="2:9">
       <c r="B1258" s="1" t="s">
-        <v>2305</v>
+        <v>2939</v>
       </c>
       <c r="C1258" s="1" t="s">
-        <v>2306</v>
+        <v>12</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>2303</v>
+        <v>2935</v>
       </c>
       <c r="E1258" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1258" s="1" t="s">
-        <v>10</v>
+        <v>2936</v>
       </c>
       <c r="G1258" s="1" t="s">
-        <v>10</v>
+        <v>2937</v>
       </c>
       <c r="H1258" s="1" t="s">
-        <v>2304</v>
+        <v>2938</v>
       </c>
       <c r="I1258" s="1" t="s">
         <v>12</v>
@@ -51072,16 +51069,16 @@
     </row>
     <row r="1259" spans="2:9">
       <c r="B1259" s="1" t="s">
-        <v>557</v>
+        <v>4087</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>553</v>
+        <v>4085</v>
       </c>
       <c r="E1259" s="1" t="s">
-        <v>554</v>
+        <v>4086</v>
       </c>
       <c r="F1259" s="1" t="s">
         <v>10</v>
@@ -51090,24 +51087,24 @@
         <v>10</v>
       </c>
       <c r="H1259" s="1" t="s">
-        <v>555</v>
+        <v>10</v>
       </c>
       <c r="I1259" s="1" t="s">
-        <v>556</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1260" spans="2:9">
       <c r="B1260" s="1" t="s">
-        <v>557</v>
+        <v>960</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>10</v>
+        <v>959</v>
       </c>
       <c r="E1260" s="1" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F1260" s="1" t="s">
         <v>10</v>
@@ -51116,30 +51113,33 @@
         <v>10</v>
       </c>
       <c r="H1260" s="1" t="s">
-        <v>2712</v>
+        <v>10</v>
+      </c>
+      <c r="I1260" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1261" spans="2:9">
       <c r="B1261" s="1" t="s">
-        <v>3596</v>
+        <v>525</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>3597</v>
+        <v>12</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>3592</v>
+        <v>522</v>
       </c>
       <c r="E1261" s="1" t="s">
-        <v>9</v>
+        <v>523</v>
       </c>
       <c r="F1261" s="1" t="s">
-        <v>3593</v>
+        <v>10</v>
       </c>
       <c r="G1261" s="1" t="s">
-        <v>3594</v>
+        <v>10</v>
       </c>
       <c r="H1261" s="1" t="s">
-        <v>3595</v>
+        <v>524</v>
       </c>
       <c r="I1261" s="1" t="s">
         <v>12</v>
@@ -51147,22 +51147,22 @@
     </row>
     <row r="1262" spans="2:9" ht="30">
       <c r="B1262" s="1" t="s">
-        <v>2697</v>
+        <v>2263</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>746</v>
+        <v>12</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>2695</v>
+        <v>2261</v>
       </c>
       <c r="E1262" s="1" t="s">
-        <v>1055</v>
+        <v>2262</v>
       </c>
       <c r="F1262" s="1" t="s">
-        <v>2696</v>
+        <v>10</v>
       </c>
       <c r="G1262" s="1" t="s">
-        <v>1055</v>
+        <v>10</v>
       </c>
       <c r="H1262" s="1" t="s">
         <v>10</v>
@@ -51173,16 +51173,16 @@
     </row>
     <row r="1263" spans="2:9" ht="30">
       <c r="B1263" s="1" t="s">
-        <v>3032</v>
+        <v>3792</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>3033</v>
+        <v>12</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>3031</v>
+        <v>3791</v>
       </c>
       <c r="E1263" s="1" t="s">
-        <v>389</v>
+        <v>2037</v>
       </c>
       <c r="F1263" s="1" t="s">
         <v>10</v>
@@ -51199,28 +51199,28 @@
     </row>
     <row r="1264" spans="2:9">
       <c r="B1264" s="1" t="s">
-        <v>1715</v>
+        <v>779</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>1716</v>
+        <v>12</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>1712</v>
+        <v>777</v>
       </c>
       <c r="E1264" s="1" t="s">
-        <v>1713</v>
+        <v>778</v>
       </c>
       <c r="F1264" s="1" t="s">
-        <v>1712</v>
+        <v>10</v>
       </c>
       <c r="G1264" s="1" t="s">
-        <v>1713</v>
+        <v>10</v>
       </c>
       <c r="H1264" s="1" t="s">
-        <v>1714</v>
+        <v>10</v>
       </c>
       <c r="I1264" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
